--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/10/flowCurve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/10/flowCurve.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>474.9874969138001</v>
+        <v>392.9386746603383</v>
       </c>
       <c r="C2" t="n">
-        <v>474987496.9138001</v>
+        <v>392938674.6603383</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>0.002</v>
       </c>
       <c r="B3" t="n">
-        <v>652.9815805420383</v>
+        <v>478.3174457947321</v>
       </c>
       <c r="C3" t="n">
-        <v>652981580.5420383</v>
+        <v>478317445.7947321</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>0.004</v>
       </c>
       <c r="B4" t="n">
-        <v>729.869931217348</v>
+        <v>507.5833966652828</v>
       </c>
       <c r="C4" t="n">
-        <v>729869931.2173481</v>
+        <v>507583396.6652828</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0.006</v>
       </c>
       <c r="B5" t="n">
-        <v>782.1318865062774</v>
+        <v>526.2833671775833</v>
       </c>
       <c r="C5" t="n">
-        <v>782131886.5062774</v>
+        <v>526283367.1775833</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0.008</v>
       </c>
       <c r="B6" t="n">
-        <v>822.478318632887</v>
+        <v>540.197357988839</v>
       </c>
       <c r="C6" t="n">
-        <v>822478318.632887</v>
+        <v>540197357.988839</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.01</v>
       </c>
       <c r="B7" t="n">
-        <v>855.6608317717819</v>
+        <v>551.3437125032782</v>
       </c>
       <c r="C7" t="n">
-        <v>855660831.7717819</v>
+        <v>551343712.5032783</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.012</v>
       </c>
       <c r="B8" t="n">
-        <v>884.013859839213</v>
+        <v>560.6750246229632</v>
       </c>
       <c r="C8" t="n">
-        <v>884013859.839213</v>
+        <v>560675024.6229632</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.014</v>
       </c>
       <c r="B9" t="n">
-        <v>908.8692340207732</v>
+        <v>568.7195525047899</v>
       </c>
       <c r="C9" t="n">
-        <v>908869234.0207732</v>
+        <v>568719552.5047899</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>0.016</v>
       </c>
       <c r="B10" t="n">
-        <v>931.0633791214628</v>
+        <v>575.8018644643936</v>
       </c>
       <c r="C10" t="n">
-        <v>931063379.1214628</v>
+        <v>575801864.4643936</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>0.018</v>
       </c>
       <c r="B11" t="n">
-        <v>951.1582086245775</v>
+        <v>582.1361558208016</v>
       </c>
       <c r="C11" t="n">
-        <v>951158208.6245775</v>
+        <v>582136155.8208016</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>0.02</v>
       </c>
       <c r="B12" t="n">
-        <v>969.5505965546306</v>
+        <v>587.871458725687</v>
       </c>
       <c r="C12" t="n">
-        <v>969550596.5546306</v>
+        <v>587871458.725687</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>0.022</v>
       </c>
       <c r="B13" t="n">
-        <v>986.5319197699</v>
+        <v>593.1157830670842</v>
       </c>
       <c r="C13" t="n">
-        <v>986531919.7699</v>
+        <v>593115783.0670842</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>0.024</v>
       </c>
       <c r="B14" t="n">
-        <v>1002.322811678583</v>
+        <v>597.9499903402756</v>
       </c>
       <c r="C14" t="n">
-        <v>1002322811.678583</v>
+        <v>597949990.3402755</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>0.026</v>
       </c>
       <c r="B15" t="n">
-        <v>1017.094606022897</v>
+        <v>602.4362405017903</v>
       </c>
       <c r="C15" t="n">
-        <v>1017094606.022897</v>
+        <v>602436240.5017903</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>0.028</v>
       </c>
       <c r="B16" t="n">
-        <v>1030.983176360881</v>
+        <v>606.6233798524562</v>
       </c>
       <c r="C16" t="n">
-        <v>1030983176.360881</v>
+        <v>606623379.8524562</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0.03</v>
       </c>
       <c r="B17" t="n">
-        <v>1044.098205956506</v>
+        <v>610.5505124022301</v>
       </c>
       <c r="C17" t="n">
-        <v>1044098205.956506</v>
+        <v>610550512.40223</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0.032</v>
       </c>
       <c r="B18" t="n">
-        <v>1056.529594035315</v>
+        <v>614.2494448429092</v>
       </c>
       <c r="C18" t="n">
-        <v>1056529594.035315</v>
+        <v>614249444.8429091</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0.034</v>
       </c>
       <c r="B19" t="n">
-        <v>1068.352002727005</v>
+        <v>617.7464071037898</v>
       </c>
       <c r="C19" t="n">
-        <v>1068352002.727005</v>
+        <v>617746407.1037898</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0.036</v>
       </c>
       <c r="B20" t="n">
-        <v>1079.628159564277</v>
+        <v>621.0632922343485</v>
       </c>
       <c r="C20" t="n">
-        <v>1079628159.564277</v>
+        <v>621063292.2343485</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0.038</v>
       </c>
       <c r="B21" t="n">
-        <v>1090.411304859918</v>
+        <v>624.2185686039073</v>
       </c>
       <c r="C21" t="n">
-        <v>1090411304.859918</v>
+        <v>624218568.6039073</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>0.04</v>
       </c>
       <c r="B22" t="n">
-        <v>1100.747037790607</v>
+        <v>627.2279633677908</v>
       </c>
       <c r="C22" t="n">
-        <v>1100747037.790607</v>
+        <v>627227963.3677908</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>0.042</v>
       </c>
       <c r="B23" t="n">
-        <v>1110.67473098198</v>
+        <v>630.1049829029382</v>
       </c>
       <c r="C23" t="n">
-        <v>1110674730.98198</v>
+        <v>630104982.9029382</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>0.044</v>
       </c>
       <c r="B24" t="n">
-        <v>1120.228629787283</v>
+        <v>632.8613148667089</v>
       </c>
       <c r="C24" t="n">
-        <v>1120228629.787283</v>
+        <v>632861314.8667089</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>0.046</v>
       </c>
       <c r="B25" t="n">
-        <v>1129.43871739911</v>
+        <v>635.5071428624966</v>
       </c>
       <c r="C25" t="n">
-        <v>1129438717.39911</v>
+        <v>635507142.8624966</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0.048</v>
       </c>
       <c r="B26" t="n">
-        <v>1138.331403495385</v>
+        <v>638.0513956139531</v>
       </c>
       <c r="C26" t="n">
-        <v>1138331403.495385</v>
+        <v>638051395.6139531</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0.05</v>
       </c>
       <c r="B27" t="n">
-        <v>1146.930078132019</v>
+        <v>640.5019463916849</v>
       </c>
       <c r="C27" t="n">
-        <v>1146930078.132019</v>
+        <v>640501946.3916849</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0.052</v>
       </c>
       <c r="B28" t="n">
-        <v>1155.25556148872</v>
+        <v>642.8657741831563</v>
       </c>
       <c r="C28" t="n">
-        <v>1155255561.48872</v>
+        <v>642865774.1831563</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>0.054</v>
       </c>
       <c r="B29" t="n">
-        <v>1163.32647223236</v>
+        <v>645.1490951093989</v>
       </c>
       <c r="C29" t="n">
-        <v>1163326472.23236</v>
+        <v>645149095.1093988</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0.056</v>
       </c>
       <c r="B30" t="n">
-        <v>1171.159531641187</v>
+        <v>647.3574704618263</v>
       </c>
       <c r="C30" t="n">
-        <v>1171159531.641187</v>
+        <v>647357470.4618263</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0.058</v>
       </c>
       <c r="B31" t="n">
-        <v>1178.769816548288</v>
+        <v>649.4958961917889</v>
       </c>
       <c r="C31" t="n">
-        <v>1178769816.548288</v>
+        <v>649495896.1917889</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>0.06</v>
       </c>
       <c r="B32" t="n">
-        <v>1186.170971156414</v>
+        <v>651.5688775568345</v>
       </c>
       <c r="C32" t="n">
-        <v>1186170971.156415</v>
+        <v>651568877.5568346</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>0.062</v>
       </c>
       <c r="B33" t="n">
-        <v>1193.375385537813</v>
+        <v>653.5804917908987</v>
       </c>
       <c r="C33" t="n">
-        <v>1193375385.537813</v>
+        <v>653580491.7908987</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>0.064</v>
       </c>
       <c r="B34" t="n">
-        <v>1200.394346947811</v>
+        <v>655.5344410384666</v>
       </c>
       <c r="C34" t="n">
-        <v>1200394346.947811</v>
+        <v>655534441.0384667</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>0.066</v>
       </c>
       <c r="B35" t="n">
-        <v>1207.238168799943</v>
+        <v>657.4340973178208</v>
       </c>
       <c r="C35" t="n">
-        <v>1207238168.799942</v>
+        <v>657434097.3178208</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>0.068</v>
       </c>
       <c r="B36" t="n">
-        <v>1213.916301167325</v>
+        <v>659.282540915402</v>
       </c>
       <c r="C36" t="n">
-        <v>1213916301.167325</v>
+        <v>659282540.9154021</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>1220.437425913954</v>
+        <v>661.0825933332685</v>
       </c>
       <c r="C37" t="n">
-        <v>1220437425.913954</v>
+        <v>661082593.3332685</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>1226.809538965595</v>
+        <v>662.8368456938315</v>
       </c>
       <c r="C38" t="n">
-        <v>1226809538.965595</v>
+        <v>662836845.6938314</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>0.074</v>
       </c>
       <c r="B39" t="n">
-        <v>1233.040021762746</v>
+        <v>664.5476833353235</v>
       </c>
       <c r="C39" t="n">
-        <v>1233040021.762746</v>
+        <v>664547683.3353236</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>0.076</v>
       </c>
       <c r="B40" t="n">
-        <v>1239.135703568073</v>
+        <v>666.217307196659</v>
       </c>
       <c r="C40" t="n">
-        <v>1239135703.568073</v>
+        <v>666217307.196659</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>0.078</v>
       </c>
       <c r="B41" t="n">
-        <v>1245.102916005526</v>
+        <v>667.8477524831757</v>
       </c>
       <c r="C41" t="n">
-        <v>1245102916.005526</v>
+        <v>667847752.4831756</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>0.08</v>
       </c>
       <c r="B42" t="n">
-        <v>1250.947540971385</v>
+        <v>669.4409050189838</v>
       </c>
       <c r="C42" t="n">
-        <v>1250947540.971385</v>
+        <v>669440905.0189838</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>0.082</v>
       </c>
       <c r="B43" t="n">
-        <v>1256.675052866191</v>
+        <v>670.9985156226005</v>
       </c>
       <c r="C43" t="n">
-        <v>1256675052.86619</v>
+        <v>670998515.6226006</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>1262.290555941046</v>
+        <v>672.5222127866276</v>
       </c>
       <c r="C44" t="n">
-        <v>1262290555.941046</v>
+        <v>672522212.7866277</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>1267.798817424934</v>
+        <v>674.0135138966924</v>
       </c>
       <c r="C45" t="n">
-        <v>1267798817.424934</v>
+        <v>674013513.8966924</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>1273.204296995494</v>
+        <v>675.4738351875993</v>
       </c>
       <c r="C46" t="n">
-        <v>1273204296.995494</v>
+        <v>675473835.1875993</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>0.09</v>
       </c>
       <c r="B47" t="n">
-        <v>1278.511173069796</v>
+        <v>676.9045006039742</v>
       </c>
       <c r="C47" t="n">
-        <v>1278511173.069796</v>
+        <v>676904500.6039741</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>0.092</v>
       </c>
       <c r="B48" t="n">
-        <v>1283.723366320462</v>
+        <v>678.3067497073395</v>
       </c>
       <c r="C48" t="n">
-        <v>1283723366.320462</v>
+        <v>678306749.7073394</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>0.094</v>
       </c>
       <c r="B49" t="n">
-        <v>1288.844560763221</v>
+        <v>679.6817447505119</v>
       </c>
       <c r="C49" t="n">
-        <v>1288844560.763221</v>
+        <v>679681744.7505119</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>0.096</v>
       </c>
       <c r="B50" t="n">
-        <v>1293.878222712453</v>
+        <v>681.0305770226753</v>
       </c>
       <c r="C50" t="n">
-        <v>1293878222.712453</v>
+        <v>681030577.0226753</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>0.098</v>
       </c>
       <c r="B51" t="n">
-        <v>1298.827617859699</v>
+        <v>682.3542725537803</v>
       </c>
       <c r="C51" t="n">
-        <v>1298827617.859699</v>
+        <v>682354272.5537803</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>0.1</v>
       </c>
       <c r="B52" t="n">
-        <v>1303.695826695112</v>
+        <v>683.6537972545838</v>
       </c>
       <c r="C52" t="n">
-        <v>1303695826.695112</v>
+        <v>683653797.2545837</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>0.102</v>
       </c>
       <c r="B53" t="n">
-        <v>1308.485758462184</v>
+        <v>684.9300615582155</v>
       </c>
       <c r="C53" t="n">
-        <v>1308485758.462184</v>
+        <v>684930061.5582155</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>0.104</v>
       </c>
       <c r="B54" t="n">
-        <v>1313.20016381098</v>
+        <v>686.1839246203424</v>
       </c>
       <c r="C54" t="n">
-        <v>1313200163.81098</v>
+        <v>686183924.6203424</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>0.106</v>
       </c>
       <c r="B55" t="n">
-        <v>1317.841646293688</v>
+        <v>687.4161981275043</v>
       </c>
       <c r="C55" t="n">
-        <v>1317841646.293688</v>
+        <v>687416198.1275043</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>0.108</v>
       </c>
       <c r="B56" t="n">
-        <v>1322.412672828029</v>
+        <v>688.6276497568058</v>
       </c>
       <c r="C56" t="n">
-        <v>1322412672.828029</v>
+        <v>688627649.7568058</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>0.11</v>
       </c>
       <c r="B57" t="n">
-        <v>1326.915583238406</v>
+        <v>689.819006324685</v>
       </c>
       <c r="C57" t="n">
-        <v>1326915583.238406</v>
+        <v>689819006.324685</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>0.112</v>
       </c>
       <c r="B58" t="n">
-        <v>1331.352598971198</v>
+        <v>690.9909566577945</v>
       </c>
       <c r="C58" t="n">
-        <v>1331352598.971198</v>
+        <v>690990956.6577945</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>0.114</v>
       </c>
       <c r="B59" t="n">
-        <v>1335.725831069024</v>
+        <v>692.1441542149967</v>
       </c>
       <c r="C59" t="n">
-        <v>1335725831.069024</v>
+        <v>692144154.2149967</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>0.116</v>
       </c>
       <c r="B60" t="n">
-        <v>1340.037287478737</v>
+        <v>693.279219485999</v>
       </c>
       <c r="C60" t="n">
-        <v>1340037287.478737</v>
+        <v>693279219.485999</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>0.118</v>
       </c>
       <c r="B61" t="n">
-        <v>1344.288879759245</v>
+        <v>694.3967421891432</v>
       </c>
       <c r="C61" t="n">
-        <v>1344288879.759245</v>
+        <v>694396742.1891432</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>0.12</v>
       </c>
       <c r="B62" t="n">
-        <v>1348.482429247691</v>
+        <v>695.4972832882576</v>
       </c>
       <c r="C62" t="n">
-        <v>1348482429.247691</v>
+        <v>695497283.2882576</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>0.122</v>
       </c>
       <c r="B63" t="n">
-        <v>1352.619672735939</v>
+        <v>696.581376846207</v>
       </c>
       <c r="C63" t="n">
-        <v>1352619672.735939</v>
+        <v>696581376.846207</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>0.124</v>
       </c>
       <c r="B64" t="n">
-        <v>1356.702267703576</v>
+        <v>697.6495317308015</v>
       </c>
       <c r="C64" t="n">
-        <v>1356702267.703576</v>
+        <v>697649531.7308016</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>0.126</v>
       </c>
       <c r="B65" t="n">
-        <v>1360.731797148605</v>
+        <v>698.7022331869941</v>
       </c>
       <c r="C65" t="n">
-        <v>1360731797.148605</v>
+        <v>698702233.1869942</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>0.128</v>
       </c>
       <c r="B66" t="n">
-        <v>1364.709774052604</v>
+        <v>699.7399442877889</v>
       </c>
       <c r="C66" t="n">
-        <v>1364709774.052604</v>
+        <v>699739944.287789</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>0.13</v>
       </c>
       <c r="B67" t="n">
-        <v>1368.637645513228</v>
+        <v>700.7631072749458</v>
       </c>
       <c r="C67" t="n">
-        <v>1368637645.513228</v>
+        <v>700763107.2749459</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>0.132</v>
       </c>
       <c r="B68" t="n">
-        <v>1372.516796573543</v>
+        <v>701.7721447994094</v>
       </c>
       <c r="C68" t="n">
-        <v>1372516796.573543</v>
+        <v>701772144.7994094</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>0.134</v>
       </c>
       <c r="B69" t="n">
-        <v>1376.348553774641</v>
+        <v>702.7674610703527</v>
       </c>
       <c r="C69" t="n">
-        <v>1376348553.774641</v>
+        <v>702767461.0703528</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>0.136</v>
       </c>
       <c r="B70" t="n">
-        <v>1380.134188455332</v>
+        <v>703.7494429208219</v>
       </c>
       <c r="C70" t="n">
-        <v>1380134188.455332</v>
+        <v>703749442.9208219</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>0.138</v>
       </c>
       <c r="B71" t="n">
-        <v>1383.874919820348</v>
+        <v>704.7184607971633</v>
       </c>
       <c r="C71" t="n">
-        <v>1383874919.820348</v>
+        <v>704718460.7971632</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>0.14</v>
       </c>
       <c r="B72" t="n">
-        <v>1387.571917796383</v>
+        <v>705.6748696787</v>
       </c>
       <c r="C72" t="n">
-        <v>1387571917.796383</v>
+        <v>705674869.6787</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>0.142</v>
       </c>
       <c r="B73" t="n">
-        <v>1391.226305693447</v>
+        <v>706.6190099334959</v>
       </c>
       <c r="C73" t="n">
-        <v>1391226305.693447</v>
+        <v>706619009.9334959</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>0.144</v>
       </c>
       <c r="B74" t="n">
-        <v>1394.839162687325</v>
+        <v>707.5512081154769</v>
       </c>
       <c r="C74" t="n">
-        <v>1394839162.687325</v>
+        <v>707551208.115477</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>0.146</v>
       </c>
       <c r="B75" t="n">
-        <v>1398.41152613748</v>
+        <v>708.4717777076821</v>
       </c>
       <c r="C75" t="n">
-        <v>1398411526.13748</v>
+        <v>708471777.7076821</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>0.148</v>
       </c>
       <c r="B76" t="n">
-        <v>1401.944393753383</v>
+        <v>709.3810198159683</v>
       </c>
       <c r="C76" t="n">
-        <v>1401944393.753383</v>
+        <v>709381019.8159683</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>0.15</v>
       </c>
       <c r="B77" t="n">
-        <v>1405.438725621084</v>
+        <v>710.2792238170903</v>
       </c>
       <c r="C77" t="n">
-        <v>1405438725.621084</v>
+        <v>710279223.8170903</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>0.152</v>
       </c>
       <c r="B78" t="n">
-        <v>1408.895446100775</v>
+        <v>711.1666679647208</v>
       </c>
       <c r="C78" t="n">
-        <v>1408895446.100775</v>
+        <v>711166667.9647207</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>0.154</v>
       </c>
       <c r="B79" t="n">
-        <v>1412.315445605127</v>
+        <v>712.0436199566558</v>
       </c>
       <c r="C79" t="n">
-        <v>1412315445.605127</v>
+        <v>712043619.9566557</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>0.156</v>
       </c>
       <c r="B80" t="n">
-        <v>1415.69958226733</v>
+        <v>712.9103374661559</v>
       </c>
       <c r="C80" t="n">
-        <v>1415699582.26733</v>
+        <v>712910337.4661559</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>0.158</v>
       </c>
       <c r="B81" t="n">
-        <v>1419.048683507006</v>
+        <v>713.7670686401226</v>
       </c>
       <c r="C81" t="n">
-        <v>1419048683.507006</v>
+        <v>713767068.6401227</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>0.16</v>
       </c>
       <c r="B82" t="n">
-        <v>1422.363547501436</v>
+        <v>714.6140525665679</v>
       </c>
       <c r="C82" t="n">
-        <v>1422363547.501436</v>
+        <v>714614052.5665679</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>0.162</v>
       </c>
       <c r="B83" t="n">
-        <v>1425.644944568939</v>
+        <v>715.451519713628</v>
       </c>
       <c r="C83" t="n">
-        <v>1425644944.568939</v>
+        <v>715451519.7136281</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>0.164</v>
       </c>
       <c r="B84" t="n">
-        <v>1428.893618470665</v>
+        <v>716.279692342182</v>
       </c>
       <c r="C84" t="n">
-        <v>1428893618.470665</v>
+        <v>716279692.342182</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>0.166</v>
       </c>
       <c r="B85" t="n">
-        <v>1432.110287636523</v>
+        <v>717.0987848939607</v>
       </c>
       <c r="C85" t="n">
-        <v>1432110287.636523</v>
+        <v>717098784.8939607</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1379,10 @@
         <v>0.168</v>
       </c>
       <c r="B86" t="n">
-        <v>1435.295646320551</v>
+        <v>717.9090043568797</v>
       </c>
       <c r="C86" t="n">
-        <v>1435295646.320551</v>
+        <v>717909004.3568797</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>0.17</v>
       </c>
       <c r="B87" t="n">
-        <v>1438.450365690542</v>
+        <v>718.7105506091858</v>
       </c>
       <c r="C87" t="n">
-        <v>1438450365.690542</v>
+        <v>718710550.6091858</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>0.172</v>
       </c>
       <c r="B88" t="n">
-        <v>1441.575094856413</v>
+        <v>719.5036167438773</v>
       </c>
       <c r="C88" t="n">
-        <v>1441575094.856413</v>
+        <v>719503616.7438773</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>0.174</v>
       </c>
       <c r="B89" t="n">
-        <v>1444.670461841426</v>
+        <v>720.2883893747459</v>
       </c>
       <c r="C89" t="n">
-        <v>1444670461.841426</v>
+        <v>720288389.3747458</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>0.176</v>
       </c>
       <c r="B90" t="n">
-        <v>1447.73707450004</v>
+        <v>721.065048925278</v>
       </c>
       <c r="C90" t="n">
-        <v>1447737074.50004</v>
+        <v>721065048.9252779</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>0.178</v>
       </c>
       <c r="B91" t="n">
-        <v>1450.775521385909</v>
+        <v>721.8337699015582</v>
       </c>
       <c r="C91" t="n">
-        <v>1450775521.385909</v>
+        <v>721833769.9015582</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>0.18</v>
       </c>
       <c r="B92" t="n">
-        <v>1453.786372573257</v>
+        <v>722.5947211502298</v>
       </c>
       <c r="C92" t="n">
-        <v>1453786372.573257</v>
+        <v>722594721.1502298</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>0.182</v>
       </c>
       <c r="B93" t="n">
-        <v>1456.770180434617</v>
+        <v>723.348066102486</v>
       </c>
       <c r="C93" t="n">
-        <v>1456770180.434617</v>
+        <v>723348066.102486</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>0.184</v>
       </c>
       <c r="B94" t="n">
-        <v>1459.727480377704</v>
+        <v>724.0939630049929</v>
       </c>
       <c r="C94" t="n">
-        <v>1459727480.377704</v>
+        <v>724093963.004993</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>0.186</v>
       </c>
       <c r="B95" t="n">
-        <v>1462.658791543994</v>
+        <v>724.832565138579</v>
       </c>
       <c r="C95" t="n">
-        <v>1462658791.543994</v>
+        <v>724832565.138579</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>0.188</v>
       </c>
       <c r="B96" t="n">
-        <v>1465.564617471377</v>
+        <v>725.5640210254592</v>
       </c>
       <c r="C96" t="n">
-        <v>1465564617.471377</v>
+        <v>725564021.0254592</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>0.19</v>
       </c>
       <c r="B97" t="n">
-        <v>1468.445446723101</v>
+        <v>726.288474625715</v>
       </c>
       <c r="C97" t="n">
-        <v>1468445446.723101</v>
+        <v>726288474.625715</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>0.192</v>
       </c>
       <c r="B98" t="n">
-        <v>1471.30175348505</v>
+        <v>727.0060655236891</v>
       </c>
       <c r="C98" t="n">
-        <v>1471301753.48505</v>
+        <v>727006065.5236892</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>0.194</v>
       </c>
       <c r="B99" t="n">
-        <v>1474.133998133263</v>
+        <v>727.7169291049153</v>
       </c>
       <c r="C99" t="n">
-        <v>1474133998.133263</v>
+        <v>727716929.1049153</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>0.196</v>
       </c>
       <c r="B100" t="n">
-        <v>1476.942627773468</v>
+        <v>728.4211967241528</v>
       </c>
       <c r="C100" t="n">
-        <v>1476942627.773468</v>
+        <v>728421196.7241528</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>0.198</v>
       </c>
       <c r="B101" t="n">
-        <v>1479.728076754278</v>
+        <v>729.1189958650614</v>
       </c>
       <c r="C101" t="n">
-        <v>1479728076.754278</v>
+        <v>729118995.8650614</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1555,10 @@
         <v>0.2</v>
       </c>
       <c r="B102" t="n">
-        <v>1482.490767155594</v>
+        <v>729.8104502920099</v>
       </c>
       <c r="C102" t="n">
-        <v>1482490767.155594</v>
+        <v>729810450.2920099</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1566,10 @@
         <v>0.202</v>
       </c>
       <c r="B103" t="n">
-        <v>1485.231109253634</v>
+        <v>730.4956801944828</v>
       </c>
       <c r="C103" t="n">
-        <v>1485231109.253634</v>
+        <v>730495680.1944828</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>0.204</v>
       </c>
       <c r="B104" t="n">
-        <v>1487.949501963935</v>
+        <v>731.1748023245119</v>
       </c>
       <c r="C104" t="n">
-        <v>1487949501.963935</v>
+        <v>731174802.3245119</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1588,10 @@
         <v>0.206</v>
       </c>
       <c r="B105" t="n">
-        <v>1490.646333263578</v>
+        <v>731.8479301275381</v>
       </c>
       <c r="C105" t="n">
-        <v>1490646333.263578</v>
+        <v>731847930.1275381</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>0.208</v>
       </c>
       <c r="B106" t="n">
-        <v>1493.321980593793</v>
+        <v>732.5151738670753</v>
       </c>
       <c r="C106" t="n">
-        <v>1493321980.593793</v>
+        <v>732515173.8670753</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1610,10 @@
         <v>0.21</v>
       </c>
       <c r="B107" t="n">
-        <v>1495.976811244037</v>
+        <v>733.1766407435273</v>
       </c>
       <c r="C107" t="n">
-        <v>1495976811.244037</v>
+        <v>733176640.7435273</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>0.212</v>
       </c>
       <c r="B108" t="n">
-        <v>1498.611182718575</v>
+        <v>733.8324350074847</v>
       </c>
       <c r="C108" t="n">
-        <v>1498611182.718575</v>
+        <v>733832435.0074847</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>0.214</v>
       </c>
       <c r="B109" t="n">
-        <v>1501.225443086501</v>
+        <v>734.482658067808</v>
       </c>
       <c r="C109" t="n">
-        <v>1501225443.086501</v>
+        <v>734482658.0678079</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>0.216</v>
       </c>
       <c r="B110" t="n">
-        <v>1503.819931316108</v>
+        <v>735.1274085947819</v>
       </c>
       <c r="C110" t="n">
-        <v>1503819931.316108</v>
+        <v>735127408.5947819</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>0.218</v>
       </c>
       <c r="B111" t="n">
-        <v>1506.394977594435</v>
+        <v>735.76678261861</v>
       </c>
       <c r="C111" t="n">
-        <v>1506394977.594434</v>
+        <v>735766782.61861</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>0.22</v>
       </c>
       <c r="B112" t="n">
-        <v>1508.950903632784</v>
+        <v>736.4008736235013</v>
       </c>
       <c r="C112" t="n">
-        <v>1508950903.632784</v>
+        <v>736400873.6235013</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>0.222</v>
       </c>
       <c r="B113" t="n">
-        <v>1511.488022958943</v>
+        <v>737.0297726375816</v>
       </c>
       <c r="C113" t="n">
-        <v>1511488022.958943</v>
+        <v>737029772.6375816</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>0.224</v>
       </c>
       <c r="B114" t="n">
-        <v>1514.006641196803</v>
+        <v>737.6535683188538</v>
       </c>
       <c r="C114" t="n">
-        <v>1514006641.196803</v>
+        <v>737653568.3188537</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>0.226</v>
       </c>
       <c r="B115" t="n">
-        <v>1516.507056334023</v>
+        <v>738.2723470374128</v>
       </c>
       <c r="C115" t="n">
-        <v>1516507056.334023</v>
+        <v>738272347.0374129</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1709,10 @@
         <v>0.228</v>
       </c>
       <c r="B116" t="n">
-        <v>1518.989558978355</v>
+        <v>738.8861929541087</v>
       </c>
       <c r="C116" t="n">
-        <v>1518989558.978355</v>
+        <v>738886192.9541086</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>0.23</v>
       </c>
       <c r="B117" t="n">
-        <v>1521.454432603209</v>
+        <v>739.4951880958437</v>
       </c>
       <c r="C117" t="n">
-        <v>1521454432.603209</v>
+        <v>739495188.0958437</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>0.232</v>
       </c>
       <c r="B118" t="n">
-        <v>1523.901953782983</v>
+        <v>740.0994124276732</v>
       </c>
       <c r="C118" t="n">
-        <v>1523901953.782983</v>
+        <v>740099412.4276732</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>0.234</v>
       </c>
       <c r="B119" t="n">
-        <v>1526.332392418689</v>
+        <v>740.6989439218728</v>
       </c>
       <c r="C119" t="n">
-        <v>1526332392.418689</v>
+        <v>740698943.9218729</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +1753,10 @@
         <v>0.236</v>
       </c>
       <c r="B120" t="n">
-        <v>1528.746011954339</v>
+        <v>741.2938586241243</v>
       </c>
       <c r="C120" t="n">
-        <v>1528746011.954339</v>
+        <v>741293858.6241243</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +1764,10 @@
         <v>0.238</v>
       </c>
       <c r="B121" t="n">
-        <v>1531.14306958455</v>
+        <v>741.8842307169637</v>
       </c>
       <c r="C121" t="n">
-        <v>1531143069.58455</v>
+        <v>741884230.7169636</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +1775,10 @@
         <v>0.24</v>
       </c>
       <c r="B122" t="n">
-        <v>1533.523816453801</v>
+        <v>742.4701325806271</v>
       </c>
       <c r="C122" t="n">
-        <v>1533523816.453801</v>
+        <v>742470132.5806271</v>
       </c>
     </row>
     <row r="123">
@@ -1786,10 +1786,10 @@
         <v>0.242</v>
       </c>
       <c r="B123" t="n">
-        <v>1535.888497847723</v>
+        <v>743.0516348514212</v>
       </c>
       <c r="C123" t="n">
-        <v>1535888497.847723</v>
+        <v>743051634.8514212</v>
       </c>
     </row>
     <row r="124">
@@ -1797,10 +1797,10 @@
         <v>0.244</v>
       </c>
       <c r="B124" t="n">
-        <v>1538.237353376837</v>
+        <v>743.6288064777384</v>
       </c>
       <c r="C124" t="n">
-        <v>1538237353.376837</v>
+        <v>743628806.4777384</v>
       </c>
     </row>
     <row r="125">
@@ -1808,10 +1808,10 @@
         <v>0.246</v>
       </c>
       <c r="B125" t="n">
-        <v>1540.570617153061</v>
+        <v>744.2017147738306</v>
       </c>
       <c r="C125" t="n">
-        <v>1540570617.153061</v>
+        <v>744201714.7738307</v>
       </c>
     </row>
     <row r="126">
@@ -1819,10 +1819,10 @@
         <v>0.248</v>
       </c>
       <c r="B126" t="n">
-        <v>1542.888517959352</v>
+        <v>744.7704254714498</v>
       </c>
       <c r="C126" t="n">
-        <v>1542888517.959352</v>
+        <v>744770425.4714499</v>
       </c>
     </row>
     <row r="127">
@@ -1830,10 +1830,10 @@
         <v>0.25</v>
       </c>
       <c r="B127" t="n">
-        <v>1545.1912794128</v>
+        <v>745.335002769453</v>
       </c>
       <c r="C127" t="n">
-        <v>1545191279.4128</v>
+        <v>745335002.769453</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +1841,10 @@
         <v>0.252</v>
       </c>
       <c r="B128" t="n">
-        <v>1547.479120121457</v>
+        <v>745.8955093814722</v>
       </c>
       <c r="C128" t="n">
-        <v>1547479120.121457</v>
+        <v>745895509.3814721</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +1852,10 @@
         <v>0.254</v>
       </c>
       <c r="B129" t="n">
-        <v>1549.75225383522</v>
+        <v>746.4520065817348</v>
       </c>
       <c r="C129" t="n">
-        <v>1549752253.835221</v>
+        <v>746452006.5817349</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +1863,10 @@
         <v>0.256</v>
       </c>
       <c r="B130" t="n">
-        <v>1552.010889591014</v>
+        <v>747.004554249125</v>
       </c>
       <c r="C130" t="n">
-        <v>1552010889.591014</v>
+        <v>747004554.249125</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +1874,10 @@
         <v>0.258</v>
       </c>
       <c r="B131" t="n">
-        <v>1554.255231852539</v>
+        <v>747.5532109095608</v>
       </c>
       <c r="C131" t="n">
-        <v>1554255231.852539</v>
+        <v>747553210.9095608</v>
       </c>
     </row>
     <row r="132">
@@ -1885,10 +1885,10 @@
         <v>0.26</v>
       </c>
       <c r="B132" t="n">
-        <v>1556.485480644833</v>
+        <v>748.0980337767704</v>
       </c>
       <c r="C132" t="n">
-        <v>1556485480.644833</v>
+        <v>748098033.7767705</v>
       </c>
     </row>
     <row r="133">
@@ -1896,10 +1896,10 @@
         <v>0.262</v>
       </c>
       <c r="B133" t="n">
-        <v>1558.701831683877</v>
+        <v>748.6390787915346</v>
       </c>
       <c r="C133" t="n">
-        <v>1558701831.683877</v>
+        <v>748639078.7915347</v>
       </c>
     </row>
     <row r="134">
@@ -1907,10 +1907,10 @@
         <v>0.264</v>
       </c>
       <c r="B134" t="n">
-        <v>1560.904476501448</v>
+        <v>749.1764006594667</v>
       </c>
       <c r="C134" t="n">
-        <v>1560904476.501448</v>
+        <v>749176400.6594667</v>
       </c>
     </row>
     <row r="135">
@@ -1918,10 +1918,10 @@
         <v>0.266</v>
       </c>
       <c r="B135" t="n">
-        <v>1563.093602565456</v>
+        <v>749.7100528873956</v>
       </c>
       <c r="C135" t="n">
-        <v>1563093602.565456</v>
+        <v>749710052.8873956</v>
       </c>
     </row>
     <row r="136">
@@ -1929,10 +1929,10 @@
         <v>0.268</v>
       </c>
       <c r="B136" t="n">
-        <v>1565.269393395935</v>
+        <v>750.2400878184117</v>
       </c>
       <c r="C136" t="n">
-        <v>1565269393.395935</v>
+        <v>750240087.8184117</v>
       </c>
     </row>
     <row r="137">
@@ -1940,10 +1940,10 @@
         <v>0.27</v>
       </c>
       <c r="B137" t="n">
-        <v>1567.432028676887</v>
+        <v>750.7665566656358</v>
       </c>
       <c r="C137" t="n">
-        <v>1567432028.676887</v>
+        <v>750766556.6656358</v>
       </c>
     </row>
     <row r="138">
@@ -1951,10 +1951,10 @@
         <v>0.272</v>
       </c>
       <c r="B138" t="n">
-        <v>1569.581684364162</v>
+        <v>751.289509544767</v>
       </c>
       <c r="C138" t="n">
-        <v>1569581684.364162</v>
+        <v>751289509.544767</v>
       </c>
     </row>
     <row r="139">
@@ -1962,10 +1962,10 @@
         <v>0.274</v>
       </c>
       <c r="B139" t="n">
-        <v>1571.718532789532</v>
+        <v>751.8089955054611</v>
       </c>
       <c r="C139" t="n">
-        <v>1571718532.789532</v>
+        <v>751808995.5054611</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +1973,10 @@
         <v>0.276</v>
       </c>
       <c r="B140" t="n">
-        <v>1573.842742761124</v>
+        <v>752.3250625615891</v>
       </c>
       <c r="C140" t="n">
-        <v>1573842742.761124</v>
+        <v>752325062.5615891</v>
       </c>
     </row>
     <row r="141">
@@ -1984,10 +1984,10 @@
         <v>0.278</v>
       </c>
       <c r="B141" t="n">
-        <v>1575.954479660367</v>
+        <v>752.8377577204275</v>
       </c>
       <c r="C141" t="n">
-        <v>1575954479.660367</v>
+        <v>752837757.7204275</v>
       </c>
     </row>
     <row r="142">
@@ -1995,10 +1995,10 @@
         <v>0.28</v>
       </c>
       <c r="B142" t="n">
-        <v>1578.053905535599</v>
+        <v>753.3471270108197</v>
       </c>
       <c r="C142" t="n">
-        <v>1578053905.535599</v>
+        <v>753347127.0108197</v>
       </c>
     </row>
     <row r="143">
@@ -2006,10 +2006,10 @@
         <v>0.282</v>
       </c>
       <c r="B143" t="n">
-        <v>1580.141179192463</v>
+        <v>753.8532155103571</v>
       </c>
       <c r="C143" t="n">
-        <v>1580141179.192463</v>
+        <v>753853215.5103571</v>
       </c>
     </row>
     <row r="144">
@@ -2017,10 +2017,10 @@
         <v>0.284</v>
       </c>
       <c r="B144" t="n">
-        <v>1582.216456281239</v>
+        <v>754.3560673716175</v>
       </c>
       <c r="C144" t="n">
-        <v>1582216456.281239</v>
+        <v>754356067.3716176</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2028,10 @@
         <v>0.286</v>
       </c>
       <c r="B145" t="n">
-        <v>1584.279889381218</v>
+        <v>754.8557258475003</v>
       </c>
       <c r="C145" t="n">
-        <v>1584279889.381217</v>
+        <v>754855725.8475002</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2039,10 @@
         <v>0.288</v>
       </c>
       <c r="B146" t="n">
-        <v>1586.331628082255</v>
+        <v>755.3522333156974</v>
       </c>
       <c r="C146" t="n">
-        <v>1586331628.082255</v>
+        <v>755352233.3156974</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2050,10 @@
         <v>0.29</v>
       </c>
       <c r="B147" t="n">
-        <v>1588.371819063608</v>
+        <v>755.8456313023331</v>
       </c>
       <c r="C147" t="n">
-        <v>1588371819.063608</v>
+        <v>755845631.3023331</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2061,10 @@
         <v>0.292</v>
       </c>
       <c r="B148" t="n">
-        <v>1590.400606170168</v>
+        <v>756.3359605048075</v>
       </c>
       <c r="C148" t="n">
-        <v>1590400606.170167</v>
+        <v>756335960.5048075</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2072,10 @@
         <v>0.294</v>
       </c>
       <c r="B149" t="n">
-        <v>1592.418130486181</v>
+        <v>756.823260813876</v>
       </c>
       <c r="C149" t="n">
-        <v>1592418130.486181</v>
+        <v>756823260.813876</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2083,10 @@
         <v>0.296</v>
       </c>
       <c r="B150" t="n">
-        <v>1594.424530406582</v>
+        <v>757.3075713349939</v>
       </c>
       <c r="C150" t="n">
-        <v>1594424530.406582</v>
+        <v>757307571.3349938</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2094,10 @@
         <v>0.298</v>
       </c>
       <c r="B151" t="n">
-        <v>1596.419941705997</v>
+        <v>757.7889304089575</v>
       </c>
       <c r="C151" t="n">
-        <v>1596419941.705997</v>
+        <v>757788930.4089575</v>
       </c>
     </row>
     <row r="152">
@@ -2105,10 +2105,10 @@
         <v>0.3</v>
       </c>
       <c r="B152" t="n">
-        <v>1598.404497605543</v>
+        <v>758.2673756318679</v>
       </c>
       <c r="C152" t="n">
-        <v>1598404497.605543</v>
+        <v>758267375.6318679</v>
       </c>
     </row>
     <row r="153">
@@ -2116,10 +2116,10 @@
         <v>0.302</v>
       </c>
       <c r="B153" t="n">
-        <v>1600.378328837485</v>
+        <v>758.7429438744437</v>
       </c>
       <c r="C153" t="n">
-        <v>1600378328.837485</v>
+        <v>758742943.8744437</v>
       </c>
     </row>
     <row r="154">
@@ -2127,10 +2127,10 @@
         <v>0.304</v>
       </c>
       <c r="B154" t="n">
-        <v>1602.341563707838</v>
+        <v>759.2156713007098</v>
       </c>
       <c r="C154" t="n">
-        <v>1602341563.707838</v>
+        <v>759215671.3007098</v>
       </c>
     </row>
     <row r="155">
@@ -2138,10 +2138,10 @@
         <v>0.306</v>
       </c>
       <c r="B155" t="n">
-        <v>1604.294328157002</v>
+        <v>759.6855933860857</v>
       </c>
       <c r="C155" t="n">
-        <v>1604294328.157002</v>
+        <v>759685593.3860856</v>
       </c>
     </row>
     <row r="156">
@@ -2149,10 +2149,10 @@
         <v>0.308</v>
       </c>
       <c r="B156" t="n">
-        <v>1606.236745818488</v>
+        <v>760.152744934894</v>
       </c>
       <c r="C156" t="n">
-        <v>1606236745.818488</v>
+        <v>760152744.9348941</v>
       </c>
     </row>
     <row r="157">
@@ -2160,10 +2160,10 @@
         <v>0.31</v>
       </c>
       <c r="B157" t="n">
-        <v>1608.168938075825</v>
+        <v>760.6171600973157</v>
       </c>
       <c r="C157" t="n">
-        <v>1608168938.075825</v>
+        <v>760617160.0973157</v>
       </c>
     </row>
     <row r="158">
@@ -2171,10 +2171,10 @@
         <v>0.312</v>
       </c>
       <c r="B158" t="n">
-        <v>1610.091024117697</v>
+        <v>761.0788723858095</v>
       </c>
       <c r="C158" t="n">
-        <v>1610091024.117697</v>
+        <v>761078872.3858095</v>
       </c>
     </row>
     <row r="159">
@@ -2182,10 +2182,10 @@
         <v>0.314</v>
       </c>
       <c r="B159" t="n">
-        <v>1612.003120991393</v>
+        <v>761.5379146910175</v>
       </c>
       <c r="C159" t="n">
-        <v>1612003120.991393</v>
+        <v>761537914.6910175</v>
       </c>
     </row>
     <row r="160">
@@ -2193,10 +2193,10 @@
         <v>0.316</v>
       </c>
       <c r="B160" t="n">
-        <v>1613.905343654623</v>
+        <v>761.9943192971748</v>
       </c>
       <c r="C160" t="n">
-        <v>1613905343.654623</v>
+        <v>761994319.2971748</v>
       </c>
     </row>
     <row r="161">
@@ -2204,10 +2204,10 @@
         <v>0.318</v>
       </c>
       <c r="B161" t="n">
-        <v>1615.797805025756</v>
+        <v>762.4481178970441</v>
       </c>
       <c r="C161" t="n">
-        <v>1615797805.025756</v>
+        <v>762448117.8970441</v>
       </c>
     </row>
     <row r="162">
@@ -2215,10 +2215,10 @@
         <v>0.32</v>
       </c>
       <c r="B162" t="n">
-        <v>1617.680616032549</v>
+        <v>762.8993416063889</v>
       </c>
       <c r="C162" t="n">
-        <v>1617680616.032549</v>
+        <v>762899341.6063889</v>
       </c>
     </row>
     <row r="163">
@@ -2226,10 +2226,10 @@
         <v>0.322</v>
       </c>
       <c r="B163" t="n">
-        <v>1619.553885659417</v>
+        <v>763.3480209780072</v>
       </c>
       <c r="C163" t="n">
-        <v>1619553885.659417</v>
+        <v>763348020.9780072</v>
       </c>
     </row>
     <row r="164">
@@ -2237,10 +2237,10 @@
         <v>0.324</v>
       </c>
       <c r="B164" t="n">
-        <v>1621.417720993286</v>
+        <v>763.7941860153371</v>
       </c>
       <c r="C164" t="n">
-        <v>1621417720.993286</v>
+        <v>763794186.0153371</v>
       </c>
     </row>
     <row r="165">
@@ -2248,10 +2248,10 @@
         <v>0.326</v>
       </c>
       <c r="B165" t="n">
-        <v>1623.272227268099</v>
+        <v>764.2378661856529</v>
       </c>
       <c r="C165" t="n">
-        <v>1623272227.268099</v>
+        <v>764237866.185653</v>
       </c>
     </row>
     <row r="166">
@@ -2259,10 +2259,10 @@
         <v>0.328</v>
       </c>
       <c r="B166" t="n">
-        <v>1625.117507908005</v>
+        <v>764.6790904328656</v>
       </c>
       <c r="C166" t="n">
-        <v>1625117507.908005</v>
+        <v>764679090.4328656</v>
       </c>
     </row>
     <row r="167">
@@ -2270,10 +2270,10 @@
         <v>0.33</v>
       </c>
       <c r="B167" t="n">
-        <v>1626.953664569289</v>
+        <v>765.1178871899406</v>
       </c>
       <c r="C167" t="n">
-        <v>1626953664.569289</v>
+        <v>765117887.1899406</v>
       </c>
     </row>
     <row r="168">
@@ -2281,10 +2281,10 @@
         <v>0.332</v>
       </c>
       <c r="B168" t="n">
-        <v>1628.780797181083</v>
+        <v>765.5542843909499</v>
       </c>
       <c r="C168" t="n">
-        <v>1628780797.181083</v>
+        <v>765554284.3909498</v>
       </c>
     </row>
     <row r="169">
@@ -2292,10 +2292,10 @@
         <v>0.334</v>
       </c>
       <c r="B169" t="n">
-        <v>1630.599003984899</v>
+        <v>765.9883094827672</v>
       </c>
       <c r="C169" t="n">
-        <v>1630599003.984899</v>
+        <v>765988309.4827672</v>
       </c>
     </row>
     <row r="170">
@@ -2303,10 +2303,10 @@
         <v>0.336</v>
       </c>
       <c r="B170" t="n">
-        <v>1632.40838157303</v>
+        <v>766.4199894364212</v>
       </c>
       <c r="C170" t="n">
-        <v>1632408381.57303</v>
+        <v>766419989.4364213</v>
       </c>
     </row>
     <row r="171">
@@ -2314,10 +2314,10 @@
         <v>0.338</v>
       </c>
       <c r="B171" t="n">
-        <v>1634.209024925847</v>
+        <v>766.84935075812</v>
       </c>
       <c r="C171" t="n">
-        <v>1634209024.925847</v>
+        <v>766849350.7581199</v>
       </c>
     </row>
     <row r="172">
@@ -2325,10 +2325,10 @@
         <v>0.34</v>
       </c>
       <c r="B172" t="n">
-        <v>1636.001027448049</v>
+        <v>767.2764194999536</v>
       </c>
       <c r="C172" t="n">
-        <v>1636001027.448049</v>
+        <v>767276419.4999536</v>
       </c>
     </row>
     <row r="173">
@@ -2336,10 +2336,10 @@
         <v>0.342</v>
       </c>
       <c r="B173" t="n">
-        <v>1637.784481003881</v>
+        <v>767.7012212702928</v>
       </c>
       <c r="C173" t="n">
-        <v>1637784481.003881</v>
+        <v>767701221.2702928</v>
       </c>
     </row>
     <row r="174">
@@ -2347,10 +2347,10 @@
         <v>0.344</v>
       </c>
       <c r="B174" t="n">
-        <v>1639.559475951369</v>
+        <v>768.1237812438865</v>
       </c>
       <c r="C174" t="n">
-        <v>1639559475.951369</v>
+        <v>768123781.2438865</v>
       </c>
     </row>
     <row r="175">
@@ -2358,10 +2358,10 @@
         <v>0.346</v>
       </c>
       <c r="B175" t="n">
-        <v>1641.326101175597</v>
+        <v>768.5441241716752</v>
       </c>
       <c r="C175" t="n">
-        <v>1641326101.175597</v>
+        <v>768544124.1716752</v>
       </c>
     </row>
     <row r="176">
@@ -2369,10 +2369,10 @@
         <v>0.348</v>
       </c>
       <c r="B176" t="n">
-        <v>1643.084444121062</v>
+        <v>768.9622743903255</v>
       </c>
       <c r="C176" t="n">
-        <v>1643084444.121063</v>
+        <v>768962274.3903255</v>
       </c>
     </row>
     <row r="177">
@@ -2380,10 +2380,10 @@
         <v>0.35</v>
       </c>
       <c r="B177" t="n">
-        <v>1644.834590823143</v>
+        <v>769.3782558314974</v>
       </c>
       <c r="C177" t="n">
-        <v>1644834590.823143</v>
+        <v>769378255.8314974</v>
       </c>
     </row>
     <row r="178">
@@ -2391,10 +2391,10 @@
         <v>0.352</v>
       </c>
       <c r="B178" t="n">
-        <v>1646.576625938696</v>
+        <v>769.7920920308524</v>
       </c>
       <c r="C178" t="n">
-        <v>1646576625.938695</v>
+        <v>769792092.0308523</v>
       </c>
     </row>
     <row r="179">
@@ -2402,10 +2402,10 @@
         <v>0.354</v>
       </c>
       <c r="B179" t="n">
-        <v>1648.310632775825</v>
+        <v>770.2038061368113</v>
       </c>
       <c r="C179" t="n">
-        <v>1648310632.775825</v>
+        <v>770203806.1368113</v>
       </c>
     </row>
     <row r="180">
@@ -2413,10 +2413,10 @@
         <v>0.356</v>
       </c>
       <c r="B180" t="n">
-        <v>1650.036693322842</v>
+        <v>770.6134209190706</v>
       </c>
       <c r="C180" t="n">
-        <v>1650036693.322842</v>
+        <v>770613420.9190706</v>
       </c>
     </row>
     <row r="181">
@@ -2424,10 +2424,10 @@
         <v>0.358</v>
       </c>
       <c r="B181" t="n">
-        <v>1651.75488827645</v>
+        <v>771.0209587768846</v>
       </c>
       <c r="C181" t="n">
-        <v>1651754888.27645</v>
+        <v>771020958.7768847</v>
       </c>
     </row>
     <row r="182">
@@ -2435,10 +2435,10 @@
         <v>0.36</v>
       </c>
       <c r="B182" t="n">
-        <v>1653.465297069162</v>
+        <v>771.4264417471207</v>
       </c>
       <c r="C182" t="n">
-        <v>1653465297.069162</v>
+        <v>771426441.7471207</v>
       </c>
     </row>
     <row r="183">
@@ -2446,10 +2446,10 @@
         <v>0.362</v>
       </c>
       <c r="B183" t="n">
-        <v>1655.167997896</v>
+        <v>771.8298915120977</v>
       </c>
       <c r="C183" t="n">
-        <v>1655167997.896</v>
+        <v>771829891.5120977</v>
       </c>
     </row>
     <row r="184">
@@ -2457,10 +2457,10 @@
         <v>0.364</v>
       </c>
       <c r="B184" t="n">
-        <v>1656.863067740477</v>
+        <v>772.2313294072093</v>
       </c>
       <c r="C184" t="n">
-        <v>1656863067.740477</v>
+        <v>772231329.4072093</v>
       </c>
     </row>
     <row r="185">
@@ -2468,10 +2468,10 @@
         <v>0.366</v>
       </c>
       <c r="B185" t="n">
-        <v>1658.550582399906</v>
+        <v>772.6307764283467</v>
       </c>
       <c r="C185" t="n">
-        <v>1658550582.399906</v>
+        <v>772630776.4283468</v>
       </c>
     </row>
     <row r="186">
@@ -2479,10 +2479,10 @@
         <v>0.368</v>
       </c>
       <c r="B186" t="n">
-        <v>1660.230616510029</v>
+        <v>773.0282532391193</v>
       </c>
       <c r="C186" t="n">
-        <v>1660230616.510029</v>
+        <v>773028253.2391193</v>
       </c>
     </row>
     <row r="187">
@@ -2490,10 +2490,10 @@
         <v>0.37</v>
       </c>
       <c r="B187" t="n">
-        <v>1661.903243569019</v>
+        <v>773.4237801778855</v>
       </c>
       <c r="C187" t="n">
-        <v>1661903243.569019</v>
+        <v>773423780.1778855</v>
       </c>
     </row>
     <row r="188">
@@ -2501,10 +2501,10 @@
         <v>0.372</v>
       </c>
       <c r="B188" t="n">
-        <v>1663.568535960852</v>
+        <v>773.8173772645973</v>
       </c>
       <c r="C188" t="n">
-        <v>1663568535.960852</v>
+        <v>773817377.2645973</v>
       </c>
     </row>
     <row r="189">
@@ -2512,10 +2512,10 @@
         <v>0.374</v>
       </c>
       <c r="B189" t="n">
-        <v>1665.226564978075</v>
+        <v>774.2090642074648</v>
       </c>
       <c r="C189" t="n">
-        <v>1665226564.978075</v>
+        <v>774209064.2074648</v>
       </c>
     </row>
     <row r="190">
@@ -2523,10 +2523,10 @@
         <v>0.376</v>
       </c>
       <c r="B190" t="n">
-        <v>1666.877400843996</v>
+        <v>774.5988604094462</v>
       </c>
       <c r="C190" t="n">
-        <v>1666877400.843996</v>
+        <v>774598860.4094461</v>
       </c>
     </row>
     <row r="191">
@@ -2534,10 +2534,10 @@
         <v>0.378</v>
       </c>
       <c r="B191" t="n">
-        <v>1668.521112734302</v>
+        <v>774.986784974569</v>
       </c>
       <c r="C191" t="n">
-        <v>1668521112.734302</v>
+        <v>774986784.974569</v>
       </c>
     </row>
     <row r="192">
@@ -2545,10 +2545,10 @@
         <v>0.38</v>
       </c>
       <c r="B192" t="n">
-        <v>1670.157768798129</v>
+        <v>775.372856714089</v>
       </c>
       <c r="C192" t="n">
-        <v>1670157768.798129</v>
+        <v>775372856.714089</v>
       </c>
     </row>
     <row r="193">
@@ -2556,10 +2556,10 @@
         <v>0.382</v>
       </c>
       <c r="B193" t="n">
-        <v>1671.787436178605</v>
+        <v>775.7570941524883</v>
       </c>
       <c r="C193" t="n">
-        <v>1671787436.178605</v>
+        <v>775757094.1524884</v>
       </c>
     </row>
     <row r="194">
@@ -2567,10 +2567,10 @@
         <v>0.384</v>
       </c>
       <c r="B194" t="n">
-        <v>1673.410181032869</v>
+        <v>776.1395155333222</v>
       </c>
       <c r="C194" t="n">
-        <v>1673410181.032869</v>
+        <v>776139515.5333222</v>
       </c>
     </row>
     <row r="195">
@@ -2578,10 +2578,10 @@
         <v>0.386</v>
       </c>
       <c r="B195" t="n">
-        <v>1675.026068551595</v>
+        <v>776.5201388249149</v>
       </c>
       <c r="C195" t="n">
-        <v>1675026068.551595</v>
+        <v>776520138.8249148</v>
       </c>
     </row>
     <row r="196">
@@ -2589,10 +2589,10 @@
         <v>0.388</v>
       </c>
       <c r="B196" t="n">
-        <v>1676.635162978029</v>
+        <v>776.898981725913</v>
       </c>
       <c r="C196" t="n">
-        <v>1676635162.978029</v>
+        <v>776898981.725913</v>
       </c>
     </row>
     <row r="197">
@@ -2600,10 +2600,10 @@
         <v>0.39</v>
       </c>
       <c r="B197" t="n">
-        <v>1678.237527626558</v>
+        <v>777.2760616706978</v>
       </c>
       <c r="C197" t="n">
-        <v>1678237527.626558</v>
+        <v>777276061.6706978</v>
       </c>
     </row>
     <row r="198">
@@ -2611,10 +2611,10 @@
         <v>0.392</v>
       </c>
       <c r="B198" t="n">
-        <v>1679.833224900816</v>
+        <v>777.6513958346617</v>
       </c>
       <c r="C198" t="n">
-        <v>1679833224.900816</v>
+        <v>777651395.8346617</v>
       </c>
     </row>
     <row r="199">
@@ -2622,10 +2622,10 @@
         <v>0.394</v>
       </c>
       <c r="B199" t="n">
-        <v>1681.422316311351</v>
+        <v>778.0250011393539</v>
       </c>
       <c r="C199" t="n">
-        <v>1681422316.311351</v>
+        <v>778025001.1393539</v>
       </c>
     </row>
     <row r="200">
@@ -2633,10 +2633,10 @@
         <v>0.396</v>
       </c>
       <c r="B200" t="n">
-        <v>1683.004862492861</v>
+        <v>778.3968942574969</v>
       </c>
       <c r="C200" t="n">
-        <v>1683004862.492861</v>
+        <v>778396894.257497</v>
       </c>
     </row>
     <row r="201">
@@ -2644,10 +2644,10 @@
         <v>0.398</v>
       </c>
       <c r="B201" t="n">
-        <v>1684.580923221014</v>
+        <v>778.7670916178812</v>
       </c>
       <c r="C201" t="n">
-        <v>1684580923.221014</v>
+        <v>778767091.6178812</v>
       </c>
     </row>
     <row r="202">
@@ -2655,10 +2655,10 @@
         <v>0.4</v>
       </c>
       <c r="B202" t="n">
-        <v>1686.150557428857</v>
+        <v>779.1356094101372</v>
       </c>
       <c r="C202" t="n">
-        <v>1686150557.428857</v>
+        <v>779135609.4101373</v>
       </c>
     </row>
     <row r="203">
@@ -2666,10 +2666,10 @@
         <v>0.402</v>
       </c>
       <c r="B203" t="n">
-        <v>1687.713823222838</v>
+        <v>779.5024635893926</v>
       </c>
       <c r="C203" t="n">
-        <v>1687713823.222838</v>
+        <v>779502463.5893927</v>
       </c>
     </row>
     <row r="204">
@@ -2677,10 +2677,10 @@
         <v>0.404</v>
       </c>
       <c r="B204" t="n">
-        <v>1689.270777898439</v>
+        <v>779.8676698808148</v>
       </c>
       <c r="C204" t="n">
-        <v>1689270777.898439</v>
+        <v>779867669.8808148</v>
       </c>
     </row>
     <row r="205">
@@ -2688,10 +2688,10 @@
         <v>0.406</v>
       </c>
       <c r="B205" t="n">
-        <v>1690.821477955443</v>
+        <v>780.2312437840448</v>
       </c>
       <c r="C205" t="n">
-        <v>1690821477.955443</v>
+        <v>780231243.7840447</v>
       </c>
     </row>
     <row r="206">
@@ -2699,10 +2699,10 @@
         <v>0.408</v>
       </c>
       <c r="B206" t="n">
-        <v>1692.365979112838</v>
+        <v>780.5932005775223</v>
       </c>
       <c r="C206" t="n">
-        <v>1692365979.112838</v>
+        <v>780593200.5775224</v>
       </c>
     </row>
     <row r="207">
@@ -2710,10 +2710,10 @@
         <v>0.41</v>
       </c>
       <c r="B207" t="n">
-        <v>1693.904336323367</v>
+        <v>780.9535553227101</v>
       </c>
       <c r="C207" t="n">
-        <v>1693904336.323367</v>
+        <v>780953555.3227102</v>
       </c>
     </row>
     <row r="208">
@@ -2721,10 +2721,10 @@
         <v>0.412</v>
       </c>
       <c r="B208" t="n">
-        <v>1695.436603787746</v>
+        <v>781.3123228682142</v>
       </c>
       <c r="C208" t="n">
-        <v>1695436603.787746</v>
+        <v>781312322.8682142</v>
       </c>
     </row>
     <row r="209">
@@ -2732,10 +2732,10 @@
         <v>0.414</v>
       </c>
       <c r="B209" t="n">
-        <v>1696.96283496854</v>
+        <v>781.6695178538085</v>
       </c>
       <c r="C209" t="n">
-        <v>1696962834.96854</v>
+        <v>781669517.8538085</v>
       </c>
     </row>
     <row r="210">
@@ -2743,10 +2743,10 @@
         <v>0.416</v>
       </c>
       <c r="B210" t="n">
-        <v>1698.483082603725</v>
+        <v>782.0251547143637</v>
       </c>
       <c r="C210" t="n">
-        <v>1698483082.603725</v>
+        <v>782025154.7143637</v>
       </c>
     </row>
     <row r="211">
@@ -2754,10 +2754,10 @@
         <v>0.418</v>
       </c>
       <c r="B211" t="n">
-        <v>1699.997398719934</v>
+        <v>782.3792476836836</v>
       </c>
       <c r="C211" t="n">
-        <v>1699997398.719934</v>
+        <v>782379247.6836836</v>
       </c>
     </row>
     <row r="212">
@@ -2765,10 +2765,10 @@
         <v>0.42</v>
       </c>
       <c r="B212" t="n">
-        <v>1701.505834645402</v>
+        <v>782.731810798252</v>
       </c>
       <c r="C212" t="n">
-        <v>1701505834.645402</v>
+        <v>782731810.798252</v>
       </c>
     </row>
     <row r="213">
@@ -2776,10 +2776,10 @@
         <v>0.422</v>
       </c>
       <c r="B213" t="n">
-        <v>1703.008441022607</v>
+        <v>783.0828579008914</v>
       </c>
       <c r="C213" t="n">
-        <v>1703008441.022607</v>
+        <v>783082857.9008914</v>
       </c>
     </row>
     <row r="214">
@@ -2787,10 +2787,10 @@
         <v>0.424</v>
       </c>
       <c r="B214" t="n">
-        <v>1704.505267820635</v>
+        <v>783.4324026443389</v>
       </c>
       <c r="C214" t="n">
-        <v>1704505267.820635</v>
+        <v>783432402.644339</v>
       </c>
     </row>
     <row r="215">
@@ -2798,10 +2798,10 @@
         <v>0.426</v>
       </c>
       <c r="B215" t="n">
-        <v>1705.996364347254</v>
+        <v>783.7804584947368</v>
       </c>
       <c r="C215" t="n">
-        <v>1705996364.347254</v>
+        <v>783780458.4947368</v>
       </c>
     </row>
     <row r="216">
@@ -2809,10 +2809,10 @@
         <v>0.428</v>
       </c>
       <c r="B216" t="n">
-        <v>1707.481779260725</v>
+        <v>784.1270387350453</v>
       </c>
       <c r="C216" t="n">
-        <v>1707481779.260725</v>
+        <v>784127038.7350453</v>
       </c>
     </row>
     <row r="217">
@@ -2820,10 +2820,10 @@
         <v>0.43</v>
       </c>
       <c r="B217" t="n">
-        <v>1708.961560581343</v>
+        <v>784.4721564683764</v>
       </c>
       <c r="C217" t="n">
-        <v>1708961560.581343</v>
+        <v>784472156.4683764</v>
       </c>
     </row>
     <row r="218">
@@ -2831,10 +2831,10 @@
         <v>0.432</v>
       </c>
       <c r="B218" t="n">
-        <v>1710.435755702718</v>
+        <v>784.8158246212514</v>
       </c>
       <c r="C218" t="n">
-        <v>1710435755.702718</v>
+        <v>784815824.6212515</v>
       </c>
     </row>
     <row r="219">
@@ -2842,10 +2842,10 @@
         <v>0.434</v>
       </c>
       <c r="B219" t="n">
-        <v>1711.904411402814</v>
+        <v>785.1580559467858</v>
       </c>
       <c r="C219" t="n">
-        <v>1711904411.402814</v>
+        <v>785158055.9467858</v>
       </c>
     </row>
     <row r="220">
@@ -2853,10 +2853,10 @@
         <v>0.436</v>
       </c>
       <c r="B220" t="n">
-        <v>1713.367573854735</v>
+        <v>785.4988630278012</v>
       </c>
       <c r="C220" t="n">
-        <v>1713367573.854735</v>
+        <v>785498863.0278013</v>
       </c>
     </row>
     <row r="221">
@@ -2864,10 +2864,10 @@
         <v>0.438</v>
       </c>
       <c r="B221" t="n">
-        <v>1714.825288637277</v>
+        <v>785.8382582798681</v>
       </c>
       <c r="C221" t="n">
-        <v>1714825288.637277</v>
+        <v>785838258.2798681</v>
       </c>
     </row>
     <row r="222">
@@ -2875,10 +2875,10 @@
         <v>0.44</v>
       </c>
       <c r="B222" t="n">
-        <v>1716.277600745252</v>
+        <v>786.1762539542807</v>
       </c>
       <c r="C222" t="n">
-        <v>1716277600.745252</v>
+        <v>786176253.9542807</v>
       </c>
     </row>
     <row r="223">
@@ -2886,10 +2886,10 @@
         <v>0.442</v>
       </c>
       <c r="B223" t="n">
-        <v>1717.724554599578</v>
+        <v>786.5128621409651</v>
       </c>
       <c r="C223" t="n">
-        <v>1717724554.599578</v>
+        <v>786512862.1409651</v>
       </c>
     </row>
     <row r="224">
@@ -2897,10 +2897,10 @@
         <v>0.444</v>
       </c>
       <c r="B224" t="n">
-        <v>1719.166194057161</v>
+        <v>786.8480947713234</v>
       </c>
       <c r="C224" t="n">
-        <v>1719166194.057161</v>
+        <v>786848094.7713234</v>
       </c>
     </row>
     <row r="225">
@@ -2908,10 +2908,10 @@
         <v>0.446</v>
       </c>
       <c r="B225" t="n">
-        <v>1720.602562420554</v>
+        <v>787.1819636210153</v>
       </c>
       <c r="C225" t="n">
-        <v>1720602562.420554</v>
+        <v>787181963.6210153</v>
       </c>
     </row>
     <row r="226">
@@ -2919,10 +2919,10 @@
         <v>0.448</v>
       </c>
       <c r="B226" t="n">
-        <v>1722.033702447411</v>
+        <v>787.5144803126784</v>
       </c>
       <c r="C226" t="n">
-        <v>1722033702.447411</v>
+        <v>787514480.3126785</v>
       </c>
     </row>
     <row r="227">
@@ -2930,10 +2930,10 @@
         <v>0.45</v>
       </c>
       <c r="B227" t="n">
-        <v>1723.459656359743</v>
+        <v>787.845656318589</v>
       </c>
       <c r="C227" t="n">
-        <v>1723459656.359743</v>
+        <v>787845656.318589</v>
       </c>
     </row>
     <row r="228">
@@ -2941,10 +2941,10 @@
         <v>0.452</v>
       </c>
       <c r="B228" t="n">
-        <v>1724.880465852969</v>
+        <v>788.1755029632657</v>
       </c>
       <c r="C228" t="n">
-        <v>1724880465.852969</v>
+        <v>788175502.9632657</v>
       </c>
     </row>
     <row r="229">
@@ -2952,10 +2952,10 @@
         <v>0.454</v>
       </c>
       <c r="B229" t="n">
-        <v>1726.296172104779</v>
+        <v>788.5040314260153</v>
       </c>
       <c r="C229" t="n">
-        <v>1726296172.104779</v>
+        <v>788504031.4260154</v>
       </c>
     </row>
     <row r="230">
@@ -2963,10 +2963,10 @@
         <v>0.456</v>
       </c>
       <c r="B230" t="n">
-        <v>1727.706815783811</v>
+        <v>788.8312527434259</v>
       </c>
       <c r="C230" t="n">
-        <v>1727706815.783811</v>
+        <v>788831252.743426</v>
       </c>
     </row>
     <row r="231">
@@ -2974,10 +2974,10 @@
         <v>0.458</v>
       </c>
       <c r="B231" t="n">
-        <v>1729.112437058139</v>
+        <v>789.1571778118036</v>
       </c>
       <c r="C231" t="n">
-        <v>1729112437.058139</v>
+        <v>789157177.8118037</v>
       </c>
     </row>
     <row r="232">
@@ -2985,10 +2985,10 @@
         <v>0.46</v>
       </c>
       <c r="B232" t="n">
-        <v>1730.513075603591</v>
+        <v>789.4818173895609</v>
       </c>
       <c r="C232" t="n">
-        <v>1730513075.603591</v>
+        <v>789481817.3895609</v>
       </c>
     </row>
     <row r="233">
@@ -2996,10 +2996,10 @@
         <v>0.462</v>
       </c>
       <c r="B233" t="n">
-        <v>1731.908770611889</v>
+        <v>789.8051820995498</v>
       </c>
       <c r="C233" t="n">
-        <v>1731908770.611889</v>
+        <v>789805182.0995498</v>
       </c>
     </row>
     <row r="234">
@@ -3007,10 +3007,10 @@
         <v>0.464</v>
       </c>
       <c r="B234" t="n">
-        <v>1733.299560798618</v>
+        <v>790.1272824313501</v>
       </c>
       <c r="C234" t="n">
-        <v>1733299560.798618</v>
+        <v>790127282.4313501</v>
       </c>
     </row>
     <row r="235">
@@ -3018,10 +3018,10 @@
         <v>0.466</v>
       </c>
       <c r="B235" t="n">
-        <v>1734.685484411035</v>
+        <v>790.4481287435058</v>
       </c>
       <c r="C235" t="n">
-        <v>1734685484.411035</v>
+        <v>790448128.7435058</v>
       </c>
     </row>
     <row r="236">
@@ -3029,10 +3029,10 @@
         <v>0.468</v>
       </c>
       <c r="B236" t="n">
-        <v>1736.066579235714</v>
+        <v>790.7677312657162</v>
       </c>
       <c r="C236" t="n">
-        <v>1736066579.235713</v>
+        <v>790767731.2657162</v>
       </c>
     </row>
     <row r="237">
@@ -3040,10 +3040,10 @@
         <v>0.47</v>
       </c>
       <c r="B237" t="n">
-        <v>1737.442882606032</v>
+        <v>791.0861001009816</v>
       </c>
       <c r="C237" t="n">
-        <v>1737442882.606032</v>
+        <v>791086100.1009816</v>
       </c>
     </row>
     <row r="238">
@@ -3051,10 +3051,10 @@
         <v>0.472</v>
       </c>
       <c r="B238" t="n">
-        <v>1738.81443140951</v>
+        <v>791.403245227703</v>
       </c>
       <c r="C238" t="n">
-        <v>1738814431.40951</v>
+        <v>791403245.227703</v>
       </c>
     </row>
     <row r="239">
@@ -3062,10 +3062,10 @@
         <v>0.474</v>
       </c>
       <c r="B239" t="n">
-        <v>1740.181262094995</v>
+        <v>791.7191765017387</v>
       </c>
       <c r="C239" t="n">
-        <v>1740181262.094995</v>
+        <v>791719176.5017388</v>
       </c>
     </row>
     <row r="240">
@@ -3073,10 +3073,10 @@
         <v>0.476</v>
       </c>
       <c r="B240" t="n">
-        <v>1741.543410679704</v>
+        <v>792.0339036584194</v>
       </c>
       <c r="C240" t="n">
-        <v>1741543410.679703</v>
+        <v>792033903.6584194</v>
       </c>
     </row>
     <row r="241">
@@ -3084,10 +3084,10 @@
         <v>0.478</v>
       </c>
       <c r="B241" t="n">
-        <v>1742.900912756118</v>
+        <v>792.3474363145207</v>
       </c>
       <c r="C241" t="n">
-        <v>1742900912.756118</v>
+        <v>792347436.3145207</v>
       </c>
     </row>
     <row r="242">
@@ -3095,10 +3095,10 @@
         <v>0.48</v>
       </c>
       <c r="B242" t="n">
-        <v>1744.253803498749</v>
+        <v>792.6597839701956</v>
       </c>
       <c r="C242" t="n">
-        <v>1744253803.498749</v>
+        <v>792659783.9701955</v>
       </c>
     </row>
     <row r="243">
@@ -3106,10 +3106,10 @@
         <v>0.482</v>
       </c>
       <c r="B243" t="n">
-        <v>1745.60211767076</v>
+        <v>792.9709560108678</v>
       </c>
       <c r="C243" t="n">
-        <v>1745602117.67076</v>
+        <v>792970956.0108678</v>
       </c>
     </row>
     <row r="244">
@@ -3117,10 +3117,10 @@
         <v>0.484</v>
       </c>
       <c r="B244" t="n">
-        <v>1746.945889630459</v>
+        <v>793.2809617090862</v>
       </c>
       <c r="C244" t="n">
-        <v>1746945889.630459</v>
+        <v>793280961.7090862</v>
       </c>
     </row>
     <row r="245">
@@ -3128,10 +3128,10 @@
         <v>0.486</v>
       </c>
       <c r="B245" t="n">
-        <v>1748.285153337665</v>
+        <v>793.5898102263425</v>
       </c>
       <c r="C245" t="n">
-        <v>1748285153.337665</v>
+        <v>793589810.2263424</v>
       </c>
     </row>
     <row r="246">
@@ -3139,10 +3139,10 @@
         <v>0.488</v>
       </c>
       <c r="B246" t="n">
-        <v>1749.619942359944</v>
+        <v>793.8975106148509</v>
       </c>
       <c r="C246" t="n">
-        <v>1749619942.359944</v>
+        <v>793897510.614851</v>
       </c>
     </row>
     <row r="247">
@@ -3150,10 +3150,10 @@
         <v>0.49</v>
       </c>
       <c r="B247" t="n">
-        <v>1750.950289878727</v>
+        <v>794.2040718192943</v>
       </c>
       <c r="C247" t="n">
-        <v>1750950289.878727</v>
+        <v>794204071.8192943</v>
       </c>
     </row>
     <row r="248">
@@ -3161,10 +3161,10 @@
         <v>0.492</v>
       </c>
       <c r="B248" t="n">
-        <v>1752.276228695303</v>
+        <v>794.5095026785332</v>
       </c>
       <c r="C248" t="n">
-        <v>1752276228.695303</v>
+        <v>794509502.6785332</v>
       </c>
     </row>
     <row r="249">
@@ -3172,10 +3172,10 @@
         <v>0.494</v>
       </c>
       <c r="B249" t="n">
-        <v>1753.597791236701</v>
+        <v>794.8138119272819</v>
       </c>
       <c r="C249" t="n">
-        <v>1753597791.236701</v>
+        <v>794813811.9272819</v>
       </c>
     </row>
     <row r="250">
@@ -3183,10 +3183,10 @@
         <v>0.496</v>
       </c>
       <c r="B250" t="n">
-        <v>1754.915009561452</v>
+        <v>795.1170081977521</v>
       </c>
       <c r="C250" t="n">
-        <v>1754915009.561452</v>
+        <v>795117008.197752</v>
       </c>
     </row>
     <row r="251">
@@ -3194,10 +3194,10 @@
         <v>0.498</v>
       </c>
       <c r="B251" t="n">
-        <v>1756.227915365243</v>
+        <v>795.4191000212621</v>
       </c>
       <c r="C251" t="n">
-        <v>1756227915.365243</v>
+        <v>795419100.0212622</v>
       </c>
     </row>
     <row r="252">
@@ -3205,10 +3205,10 @@
         <v>0.5</v>
       </c>
       <c r="B252" t="n">
-        <v>1757.53653998646</v>
+        <v>795.7200958298167</v>
       </c>
       <c r="C252" t="n">
-        <v>1757536539.98646</v>
+        <v>795720095.8298167</v>
       </c>
     </row>
     <row r="253">
@@ -3216,10 +3216,10 @@
         <v>0.505</v>
       </c>
       <c r="B253" t="n">
-        <v>1760.789573863303</v>
+        <v>796.4678447427165</v>
       </c>
       <c r="C253" t="n">
-        <v>1760789573.863303</v>
+        <v>796467844.7427164</v>
       </c>
     </row>
     <row r="254">
@@ -3227,10 +3227,10 @@
         <v>0.51</v>
       </c>
       <c r="B254" t="n">
-        <v>1764.016517862884</v>
+        <v>797.2089230089472</v>
       </c>
       <c r="C254" t="n">
-        <v>1764016517.862884</v>
+        <v>797208923.0089471</v>
       </c>
     </row>
     <row r="255">
@@ -3238,10 +3238,10 @@
         <v>0.515</v>
       </c>
       <c r="B255" t="n">
-        <v>1767.217833744887</v>
+        <v>797.9434546320773</v>
       </c>
       <c r="C255" t="n">
-        <v>1767217833.744887</v>
+        <v>797943454.6320773</v>
       </c>
     </row>
     <row r="256">
@@ -3249,10 +3249,10 @@
         <v>0.52</v>
       </c>
       <c r="B256" t="n">
-        <v>1770.393970713483</v>
+        <v>798.6715601347404</v>
       </c>
       <c r="C256" t="n">
-        <v>1770393970.713483</v>
+        <v>798671560.1347404</v>
       </c>
     </row>
     <row r="257">
@@ -3260,10 +3260,10 @@
         <v>0.525</v>
       </c>
       <c r="B257" t="n">
-        <v>1773.545365875613</v>
+        <v>799.3933566887239</v>
       </c>
       <c r="C257" t="n">
-        <v>1773545365.875612</v>
+        <v>799393356.6887239</v>
       </c>
     </row>
     <row r="258">
@@ -3271,10 +3271,10 @@
         <v>0.53</v>
       </c>
       <c r="B258" t="n">
-        <v>1776.672444678366</v>
+        <v>800.1089582390088</v>
       </c>
       <c r="C258" t="n">
-        <v>1776672444.678365</v>
+        <v>800108958.2390088</v>
       </c>
     </row>
     <row r="259">
@@ -3282,10 +3282,10 @@
         <v>0.535</v>
       </c>
       <c r="B259" t="n">
-        <v>1779.775621326578</v>
+        <v>800.8184756220965</v>
       </c>
       <c r="C259" t="n">
-        <v>1779775621.326578</v>
+        <v>800818475.6220964</v>
       </c>
     </row>
     <row r="260">
@@ -3293,10 +3293,10 @@
         <v>0.54</v>
       </c>
       <c r="B260" t="n">
-        <v>1782.855299181731</v>
+        <v>801.5220166789364</v>
       </c>
       <c r="C260" t="n">
-        <v>1782855299.181731</v>
+        <v>801522016.6789365</v>
       </c>
     </row>
     <row r="261">
@@ -3304,10 +3304,10 @@
         <v>0.545</v>
       </c>
       <c r="B261" t="n">
-        <v>1785.911871143152</v>
+        <v>802.2196863627482</v>
       </c>
       <c r="C261" t="n">
-        <v>1785911871.143152</v>
+        <v>802219686.3627483</v>
       </c>
     </row>
     <row r="262">
@@ -3315,10 +3315,10 @@
         <v>0.55</v>
       </c>
       <c r="B262" t="n">
-        <v>1788.945720012447</v>
+        <v>802.9115868420128</v>
       </c>
       <c r="C262" t="n">
-        <v>1788945720.012447</v>
+        <v>802911586.8420128</v>
       </c>
     </row>
     <row r="263">
@@ -3326,10 +3326,10 @@
         <v>0.555</v>
       </c>
       <c r="B263" t="n">
-        <v>1791.957218842068</v>
+        <v>803.5978175988924</v>
       </c>
       <c r="C263" t="n">
-        <v>1791957218.842068</v>
+        <v>803597817.5988925</v>
       </c>
     </row>
     <row r="264">
@@ -3337,10 +3337,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B264" t="n">
-        <v>1794.946731268814</v>
+        <v>804.2784755233209</v>
       </c>
       <c r="C264" t="n">
-        <v>1794946731.268814</v>
+        <v>804278475.5233209</v>
       </c>
     </row>
     <row r="265">
@@ -3348,10 +3348,10 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B265" t="n">
-        <v>1797.914611833075</v>
+        <v>804.9536550029904</v>
       </c>
       <c r="C265" t="n">
-        <v>1797914611.833075</v>
+        <v>804953655.0029905</v>
       </c>
     </row>
     <row r="266">
@@ -3359,10 +3359,10 @@
         <v>0.57</v>
       </c>
       <c r="B266" t="n">
-        <v>1800.861206284523</v>
+        <v>805.6234480094497</v>
       </c>
       <c r="C266" t="n">
-        <v>1800861206.284523</v>
+        <v>805623448.0094497</v>
       </c>
     </row>
     <row r="267">
@@ -3370,10 +3370,10 @@
         <v>0.575</v>
       </c>
       <c r="B267" t="n">
-        <v>1803.786851874954</v>
+        <v>806.2879441805134</v>
       </c>
       <c r="C267" t="n">
-        <v>1803786851.874954</v>
+        <v>806287944.1805134</v>
       </c>
     </row>
     <row r="268">
@@ -3381,10 +3381,10 @@
         <v>0.58</v>
       </c>
       <c r="B268" t="n">
-        <v>1806.691877638926</v>
+        <v>806.9472308991722</v>
       </c>
       <c r="C268" t="n">
-        <v>1806691877.638926</v>
+        <v>806947230.8991722</v>
       </c>
     </row>
     <row r="269">
@@ -3392,10 +3392,10 @@
         <v>0.585</v>
       </c>
       <c r="B269" t="n">
-        <v>1809.576604662795</v>
+        <v>807.6013933691793</v>
       </c>
       <c r="C269" t="n">
-        <v>1809576604.662795</v>
+        <v>807601393.3691792</v>
       </c>
     </row>
     <row r="270">
@@ -3403,10 +3403,10 @@
         <v>0.59</v>
       </c>
       <c r="B270" t="n">
-        <v>1812.441346342727</v>
+        <v>808.2505146874821</v>
       </c>
       <c r="C270" t="n">
-        <v>1812441346.342727</v>
+        <v>808250514.6874821</v>
       </c>
     </row>
     <row r="271">
@@ -3414,10 +3414,10 @@
         <v>0.595</v>
       </c>
       <c r="B271" t="n">
-        <v>1815.286408632237</v>
+        <v>808.8946759136554</v>
       </c>
       <c r="C271" t="n">
-        <v>1815286408.632236</v>
+        <v>808894675.9136554</v>
       </c>
     </row>
     <row r="272">
@@ -3425,10 +3425,10 @@
         <v>0.6</v>
       </c>
       <c r="B272" t="n">
-        <v>1818.112090279739</v>
+        <v>809.533956136484</v>
       </c>
       <c r="C272" t="n">
-        <v>1818112090.279739</v>
+        <v>809533956.136484</v>
       </c>
     </row>
     <row r="273">
@@ -3436,10 +3436,10 @@
         <v>0.605</v>
       </c>
       <c r="B273" t="n">
-        <v>1820.918683056621</v>
+        <v>810.1684325378354</v>
       </c>
       <c r="C273" t="n">
-        <v>1820918683.056621</v>
+        <v>810168432.5378355</v>
       </c>
     </row>
     <row r="274">
@@ -3447,10 +3447,10 @@
         <v>0.61</v>
       </c>
       <c r="B274" t="n">
-        <v>1823.706471976276</v>
+        <v>810.7981804539539</v>
       </c>
       <c r="C274" t="n">
-        <v>1823706471.976276</v>
+        <v>810798180.453954</v>
       </c>
     </row>
     <row r="275">
@@ -3458,10 +3458,10 @@
         <v>0.615</v>
       </c>
       <c r="B275" t="n">
-        <v>1826.47573550452</v>
+        <v>811.4232734342996</v>
       </c>
       <c r="C275" t="n">
-        <v>1826475735.50452</v>
+        <v>811423273.4342996</v>
       </c>
     </row>
     <row r="276">
@@ -3469,10 +3469,10 @@
         <v>0.62</v>
       </c>
       <c r="B276" t="n">
-        <v>1829.226745761815</v>
+        <v>812.0437832980505</v>
       </c>
       <c r="C276" t="n">
-        <v>1829226745.761815</v>
+        <v>812043783.2980505</v>
       </c>
     </row>
     <row r="277">
@@ -3480,10 +3480,10 @@
         <v>0.625</v>
       </c>
       <c r="B277" t="n">
-        <v>1831.959768717671</v>
+        <v>812.6597801883788</v>
       </c>
       <c r="C277" t="n">
-        <v>1831959768.717671</v>
+        <v>812659780.1883788</v>
       </c>
     </row>
     <row r="278">
@@ -3491,10 +3491,10 @@
         <v>0.63</v>
       </c>
       <c r="B278" t="n">
-        <v>1834.675064377584</v>
+        <v>813.2713326246056</v>
       </c>
       <c r="C278" t="n">
-        <v>1834675064.377584</v>
+        <v>813271332.6246057</v>
       </c>
     </row>
     <row r="279">
@@ -3502,10 +3502,10 @@
         <v>0.635</v>
       </c>
       <c r="B279" t="n">
-        <v>1837.372886962869</v>
+        <v>813.8785075523332</v>
       </c>
       <c r="C279" t="n">
-        <v>1837372886.962869</v>
+        <v>813878507.5523332</v>
       </c>
     </row>
     <row r="280">
@@ -3513,10 +3513,10 @@
         <v>0.64</v>
       </c>
       <c r="B280" t="n">
-        <v>1840.053485083696</v>
+        <v>814.4813703916481</v>
       </c>
       <c r="C280" t="n">
-        <v>1840053485.083696</v>
+        <v>814481370.3916481</v>
       </c>
     </row>
     <row r="281">
@@ -3524,10 +3524,10 @@
         <v>0.645</v>
       </c>
       <c r="B281" t="n">
-        <v>1842.717101905644</v>
+        <v>815.0799850834845</v>
       </c>
       <c r="C281" t="n">
-        <v>1842717101.905644</v>
+        <v>815079985.0834845</v>
       </c>
     </row>
     <row r="282">
@@ -3535,10 +3535,10 @@
         <v>0.65</v>
       </c>
       <c r="B282" t="n">
-        <v>1845.363975310063</v>
+        <v>815.6744141342322</v>
       </c>
       <c r="C282" t="n">
-        <v>1845363975.310063</v>
+        <v>815674414.1342322</v>
       </c>
     </row>
     <row r="283">
@@ -3546,10 +3546,10 @@
         <v>0.655</v>
       </c>
       <c r="B283" t="n">
-        <v>1847.994338048526</v>
+        <v>816.2647186586653</v>
       </c>
       <c r="C283" t="n">
-        <v>1847994338.048526</v>
+        <v>816264718.6586653</v>
       </c>
     </row>
     <row r="284">
@@ -3557,10 +3557,10 @@
         <v>0.66</v>
       </c>
       <c r="B284" t="n">
-        <v>1850.608417891614</v>
+        <v>816.8509584212732</v>
       </c>
       <c r="C284" t="n">
-        <v>1850608417.891614</v>
+        <v>816850958.4212731</v>
       </c>
     </row>
     <row r="285">
@@ -3568,10 +3568,10 @@
         <v>0.665</v>
       </c>
       <c r="B285" t="n">
-        <v>1853.206437772311</v>
+        <v>817.4331918760578</v>
       </c>
       <c r="C285" t="n">
-        <v>1853206437.772311</v>
+        <v>817433191.8760577</v>
       </c>
     </row>
     <row r="286">
@@ -3579,10 +3579,10 @@
         <v>0.67</v>
       </c>
       <c r="B286" t="n">
-        <v>1855.78861592421</v>
+        <v>818.0114762048712</v>
       </c>
       <c r="C286" t="n">
-        <v>1855788615.92421</v>
+        <v>818011476.2048712</v>
       </c>
     </row>
     <row r="287">
@@ -3590,10 +3590,10 @@
         <v>0.675</v>
       </c>
       <c r="B287" t="n">
-        <v>1858.355166014788</v>
+        <v>818.5858673543537</v>
       </c>
       <c r="C287" t="n">
-        <v>1858355166.014788</v>
+        <v>818585867.3543537</v>
       </c>
     </row>
     <row r="288">
@@ -3601,10 +3601,10 @@
         <v>0.68</v>
       </c>
       <c r="B288" t="n">
-        <v>1860.906297273936</v>
+        <v>819.1564200715345</v>
       </c>
       <c r="C288" t="n">
-        <v>1860906297.273936</v>
+        <v>819156420.0715345</v>
       </c>
     </row>
     <row r="289">
@@ -3612,10 +3612,10 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B289" t="n">
-        <v>1863.442214617961</v>
+        <v>819.7231879381542</v>
       </c>
       <c r="C289" t="n">
-        <v>1863442214.617961</v>
+        <v>819723187.9381542</v>
       </c>
     </row>
     <row r="290">
@@ -3623,10 +3623,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B290" t="n">
-        <v>1865.963118769239</v>
+        <v>820.2862234037613</v>
       </c>
       <c r="C290" t="n">
-        <v>1865963118.769239</v>
+        <v>820286223.4037613</v>
       </c>
     </row>
     <row r="291">
@@ -3634,10 +3634,10 @@
         <v>0.695</v>
       </c>
       <c r="B291" t="n">
-        <v>1868.46920637172</v>
+        <v>820.8455778176383</v>
       </c>
       <c r="C291" t="n">
-        <v>1868469206.37172</v>
+        <v>820845577.8176383</v>
       </c>
     </row>
     <row r="292">
@@ -3645,10 +3645,10 @@
         <v>0.7</v>
       </c>
       <c r="B292" t="n">
-        <v>1870.960670102437</v>
+        <v>821.4013014596031</v>
       </c>
       <c r="C292" t="n">
-        <v>1870960670.102437</v>
+        <v>821401301.4596032</v>
       </c>
     </row>
     <row r="293">
@@ -3656,10 +3656,10 @@
         <v>0.705</v>
       </c>
       <c r="B293" t="n">
-        <v>1873.437698779198</v>
+        <v>821.953443569737</v>
       </c>
       <c r="C293" t="n">
-        <v>1873437698.779198</v>
+        <v>821953443.5697371</v>
       </c>
     </row>
     <row r="294">
@@ -3667,10 +3667,10 @@
         <v>0.71</v>
       </c>
       <c r="B294" t="n">
-        <v>1875.900477464614</v>
+        <v>822.5020523770804</v>
       </c>
       <c r="C294" t="n">
-        <v>1875900477.464614</v>
+        <v>822502052.3770804</v>
       </c>
     </row>
     <row r="295">
@@ -3678,10 +3678,10 @@
         <v>0.715</v>
       </c>
       <c r="B295" t="n">
-        <v>1878.349187566614</v>
+        <v>823.0471751273423</v>
       </c>
       <c r="C295" t="n">
-        <v>1878349187.566614</v>
+        <v>823047175.1273422</v>
       </c>
     </row>
     <row r="296">
@@ -3689,10 +3689,10 @@
         <v>0.72</v>
       </c>
       <c r="B296" t="n">
-        <v>1880.784006935582</v>
+        <v>823.5888581096607</v>
       </c>
       <c r="C296" t="n">
-        <v>1880784006.935582</v>
+        <v>823588858.1096607</v>
       </c>
     </row>
     <row r="297">
@@ -3700,10 +3700,10 @@
         <v>0.725</v>
       </c>
       <c r="B297" t="n">
-        <v>1883.205109958266</v>
+        <v>824.1271466824568</v>
       </c>
       <c r="C297" t="n">
-        <v>1883205109.958266</v>
+        <v>824127146.6824567</v>
       </c>
     </row>
     <row r="298">
@@ -3711,10 +3711,10 @@
         <v>0.73</v>
       </c>
       <c r="B298" t="n">
-        <v>1885.612667648572</v>
+        <v>824.6620852984159</v>
       </c>
       <c r="C298" t="n">
-        <v>1885612667.648572</v>
+        <v>824662085.2984159</v>
       </c>
     </row>
     <row r="299">
@@ -3722,10 +3722,10 @@
         <v>0.735</v>
       </c>
       <c r="B299" t="n">
-        <v>1888.00684773538</v>
+        <v>825.1937175286324</v>
       </c>
       <c r="C299" t="n">
-        <v>1888006847.73538</v>
+        <v>825193717.5286324</v>
       </c>
     </row>
     <row r="300">
@@ -3733,10 +3733,10 @@
         <v>0.74</v>
       </c>
       <c r="B300" t="n">
-        <v>1890.387814747489</v>
+        <v>825.7220860859514</v>
       </c>
       <c r="C300" t="n">
-        <v>1890387814.747489</v>
+        <v>825722086.0859514</v>
       </c>
     </row>
     <row r="301">
@@ -3744,10 +3744,10 @@
         <v>0.745</v>
       </c>
       <c r="B301" t="n">
-        <v>1892.755730095814</v>
+        <v>826.2472328475403</v>
       </c>
       <c r="C301" t="n">
-        <v>1892755730.095814</v>
+        <v>826247232.8475403</v>
       </c>
     </row>
     <row r="302">
@@ -3755,10 +3755,10 @@
         <v>0.75</v>
       </c>
       <c r="B302" t="n">
-        <v>1895.11075215293</v>
+        <v>826.7691988767186</v>
       </c>
       <c r="C302" t="n">
-        <v>1895110752.15293</v>
+        <v>826769198.8767186</v>
       </c>
     </row>
     <row r="303">
@@ -3766,10 +3766,10 @@
         <v>0.755</v>
       </c>
       <c r="B303" t="n">
-        <v>1897.453036330076</v>
+        <v>827.2880244440772</v>
       </c>
       <c r="C303" t="n">
-        <v>1897453036.330076</v>
+        <v>827288024.4440773</v>
       </c>
     </row>
     <row r="304">
@@ -3777,10 +3777,10 @@
         <v>0.76</v>
       </c>
       <c r="B304" t="n">
-        <v>1899.782735151706</v>
+        <v>827.803749047913</v>
       </c>
       <c r="C304" t="n">
-        <v>1899782735.151706</v>
+        <v>827803749.0479131</v>
       </c>
     </row>
     <row r="305">
@@ -3788,10 +3788,10 @@
         <v>0.765</v>
       </c>
       <c r="B305" t="n">
-        <v>1902.099998327698</v>
+        <v>828.3164114340066</v>
       </c>
       <c r="C305" t="n">
-        <v>1902099998.327698</v>
+        <v>828316411.4340066</v>
       </c>
     </row>
     <row r="306">
@@ -3799,10 +3799,10 @@
         <v>0.77</v>
       </c>
       <c r="B306" t="n">
-        <v>1904.404972823284</v>
+        <v>828.8260496147681</v>
       </c>
       <c r="C306" t="n">
-        <v>1904404972.823284</v>
+        <v>828826049.614768</v>
       </c>
     </row>
     <row r="307">
@@ -3810,10 +3810,10 @@
         <v>0.775</v>
       </c>
       <c r="B307" t="n">
-        <v>1906.697802926814</v>
+        <v>829.332700887775</v>
       </c>
       <c r="C307" t="n">
-        <v>1906697802.926814</v>
+        <v>829332700.8877749</v>
       </c>
     </row>
     <row r="308">
@@ -3821,10 +3821,10 @@
         <v>0.78</v>
       </c>
       <c r="B308" t="n">
-        <v>1908.978630315409</v>
+        <v>829.8364018537252</v>
       </c>
       <c r="C308" t="n">
-        <v>1908978630.315409</v>
+        <v>829836401.8537252</v>
       </c>
     </row>
     <row r="309">
@@ -3832,10 +3832,10 @@
         <v>0.785</v>
       </c>
       <c r="B309" t="n">
-        <v>1911.247594118608</v>
+        <v>830.337188433827</v>
       </c>
       <c r="C309" t="n">
-        <v>1911247594.118608</v>
+        <v>830337188.433827</v>
       </c>
     </row>
     <row r="310">
@@ -3843,10 +3843,10 @@
         <v>0.79</v>
       </c>
       <c r="B310" t="n">
-        <v>1913.504830980059</v>
+        <v>830.8350958866478</v>
       </c>
       <c r="C310" t="n">
-        <v>1913504830.980059</v>
+        <v>830835095.8866478</v>
       </c>
     </row>
     <row r="311">
@@ -3854,10 +3854,10 @@
         <v>0.795</v>
       </c>
       <c r="B311" t="n">
-        <v>1915.750475117341</v>
+        <v>831.3301588244417</v>
       </c>
       <c r="C311" t="n">
-        <v>1915750475.117341</v>
+        <v>831330158.8244417</v>
       </c>
     </row>
     <row r="312">
@@ -3865,10 +3865,10 @@
         <v>0.8</v>
       </c>
       <c r="B312" t="n">
-        <v>1917.984658379981</v>
+        <v>831.8224112289743</v>
       </c>
       <c r="C312" t="n">
-        <v>1917984658.379981</v>
+        <v>831822411.2289742</v>
       </c>
     </row>
     <row r="313">
@@ -3876,10 +3876,10 @@
         <v>0.805</v>
       </c>
       <c r="B313" t="n">
-        <v>1920.207510305727</v>
+        <v>832.3118864668639</v>
       </c>
       <c r="C313" t="n">
-        <v>1920207510.305727</v>
+        <v>832311886.466864</v>
       </c>
     </row>
     <row r="314">
@@ -3887,10 +3887,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B314" t="n">
-        <v>1922.419158175145</v>
+        <v>832.7986173044577</v>
       </c>
       <c r="C314" t="n">
-        <v>1922419158.175145</v>
+        <v>832798617.3044577</v>
       </c>
     </row>
     <row r="315">
@@ -3898,10 +3898,10 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B315" t="n">
-        <v>1924.619727064605</v>
+        <v>833.282635922257</v>
       </c>
       <c r="C315" t="n">
-        <v>1924619727.064605</v>
+        <v>833282635.9222569</v>
       </c>
     </row>
     <row r="316">
@@ -3909,10 +3909,10 @@
         <v>0.82</v>
       </c>
       <c r="B316" t="n">
-        <v>1926.809339897693</v>
+        <v>833.7639739289122</v>
       </c>
       <c r="C316" t="n">
-        <v>1926809339.897693</v>
+        <v>833763973.9289122</v>
       </c>
     </row>
     <row r="317">
@@ -3920,10 +3920,10 @@
         <v>0.825</v>
       </c>
       <c r="B317" t="n">
-        <v>1928.988117495132</v>
+        <v>834.2426623747976</v>
       </c>
       <c r="C317" t="n">
-        <v>1928988117.495132</v>
+        <v>834242662.3747977</v>
       </c>
     </row>
     <row r="318">
@@ -3931,10 +3931,10 @@
         <v>0.83</v>
       </c>
       <c r="B318" t="n">
-        <v>1931.156178623245</v>
+        <v>834.7187317651869</v>
       </c>
       <c r="C318" t="n">
-        <v>1931156178.623245</v>
+        <v>834718731.7651869</v>
       </c>
     </row>
     <row r="319">
@@ -3942,10 +3942,10 @@
         <v>0.835</v>
       </c>
       <c r="B319" t="n">
-        <v>1933.313640041013</v>
+        <v>835.1922120730375</v>
       </c>
       <c r="C319" t="n">
-        <v>1933313640.041013</v>
+        <v>835192212.0730375</v>
       </c>
     </row>
     <row r="320">
@@ -3953,10 +3953,10 @@
         <v>0.84</v>
       </c>
       <c r="B320" t="n">
-        <v>1935.460616545791</v>
+        <v>835.6631327514028</v>
       </c>
       <c r="C320" t="n">
-        <v>1935460616.545791</v>
+        <v>835663132.7514029</v>
       </c>
     </row>
     <row r="321">
@@ -3964,10 +3964,10 @@
         <v>0.845</v>
       </c>
       <c r="B321" t="n">
-        <v>1937.597221017704</v>
+        <v>836.1315227454817</v>
       </c>
       <c r="C321" t="n">
-        <v>1937597221.017704</v>
+        <v>836131522.7454817</v>
       </c>
     </row>
     <row r="322">
@@ -3975,10 +3975,10 @@
         <v>0.85</v>
       </c>
       <c r="B322" t="n">
-        <v>1939.723564462797</v>
+        <v>836.5974105043199</v>
       </c>
       <c r="C322" t="n">
-        <v>1939723564.462796</v>
+        <v>836597410.5043199</v>
       </c>
     </row>
     <row r="323">
@@ -3986,10 +3986,10 @@
         <v>0.855</v>
       </c>
       <c r="B323" t="n">
-        <v>1941.83975605495</v>
+        <v>837.0608239921753</v>
       </c>
       <c r="C323" t="n">
-        <v>1941839756.05495</v>
+        <v>837060823.9921753</v>
       </c>
     </row>
     <row r="324">
@@ -3997,10 +3997,10 @@
         <v>0.86</v>
       </c>
       <c r="B324" t="n">
-        <v>1943.945903176637</v>
+        <v>837.5217906995565</v>
       </c>
       <c r="C324" t="n">
-        <v>1943945903.176637</v>
+        <v>837521790.6995565</v>
       </c>
     </row>
     <row r="325">
@@ -4008,10 +4008,10 @@
         <v>0.865</v>
       </c>
       <c r="B325" t="n">
-        <v>1946.042111458524</v>
+        <v>837.9803376539487</v>
       </c>
       <c r="C325" t="n">
-        <v>1946042111.458524</v>
+        <v>837980337.6539487</v>
       </c>
     </row>
     <row r="326">
@@ -4019,10 +4019,10 @@
         <v>0.87</v>
       </c>
       <c r="B326" t="n">
-        <v>1948.128484817988</v>
+        <v>838.436491430237</v>
       </c>
       <c r="C326" t="n">
-        <v>1948128484.817988</v>
+        <v>838436491.4302369</v>
       </c>
     </row>
     <row r="327">
@@ -4030,10 +4030,10 @@
         <v>0.875</v>
       </c>
       <c r="B327" t="n">
-        <v>1950.205125496563</v>
+        <v>838.8902781608344</v>
       </c>
       <c r="C327" t="n">
-        <v>1950205125.496563</v>
+        <v>838890278.1608344</v>
       </c>
     </row>
     <row r="328">
@@ -4041,10 +4041,10 @@
         <v>0.88</v>
       </c>
       <c r="B328" t="n">
-        <v>1952.272134096361</v>
+        <v>839.3417235455295</v>
       </c>
       <c r="C328" t="n">
-        <v>1952272134.09636</v>
+        <v>839341723.5455295</v>
       </c>
     </row>
     <row r="329">
@@ -4052,10 +4052,10 @@
         <v>0.885</v>
       </c>
       <c r="B329" t="n">
-        <v>1954.3296096155</v>
+        <v>839.7908528610578</v>
       </c>
       <c r="C329" t="n">
-        <v>1954329609.615499</v>
+        <v>839790852.8610579</v>
       </c>
     </row>
     <row r="330">
@@ -4063,10 +4063,10 @@
         <v>0.89</v>
       </c>
       <c r="B330" t="n">
-        <v>1956.377649482571</v>
+        <v>840.2376909704109</v>
       </c>
       <c r="C330" t="n">
-        <v>1956377649.482571</v>
+        <v>840237690.9704108</v>
       </c>
     </row>
     <row r="331">
@@ -4074,10 +4074,10 @@
         <v>0.895</v>
       </c>
       <c r="B331" t="n">
-        <v>1958.416349590176</v>
+        <v>840.6822623318878</v>
       </c>
       <c r="C331" t="n">
-        <v>1958416349.590176</v>
+        <v>840682262.3318878</v>
       </c>
     </row>
     <row r="332">
@@ -4085,10 +4085,10 @@
         <v>0.9</v>
       </c>
       <c r="B332" t="n">
-        <v>1960.445804327565</v>
+        <v>841.1245910079011</v>
       </c>
       <c r="C332" t="n">
-        <v>1960445804.327565</v>
+        <v>841124591.0079011</v>
       </c>
     </row>
     <row r="333">
@@ -4096,10 +4096,10 @@
         <v>0.905</v>
       </c>
       <c r="B333" t="n">
-        <v>1962.466106612404</v>
+        <v>841.5647006735412</v>
       </c>
       <c r="C333" t="n">
-        <v>1962466106.612404</v>
+        <v>841564700.6735412</v>
       </c>
     </row>
     <row r="334">
@@ -4107,10 +4107,10 @@
         <v>0.91</v>
       </c>
       <c r="B334" t="n">
-        <v>1964.477347921699</v>
+        <v>842.0026146249113</v>
       </c>
       <c r="C334" t="n">
-        <v>1964477347.921699</v>
+        <v>842002614.6249113</v>
       </c>
     </row>
     <row r="335">
@@ -4118,10 +4118,10 @@
         <v>0.915</v>
       </c>
       <c r="B335" t="n">
-        <v>1966.479618321905</v>
+        <v>842.4383557872374</v>
       </c>
       <c r="C335" t="n">
-        <v>1966479618.321905</v>
+        <v>842438355.7872374</v>
       </c>
     </row>
     <row r="336">
@@ -4129,10 +4129,10 @@
         <v>0.92</v>
       </c>
       <c r="B336" t="n">
-        <v>1968.473006498247</v>
+        <v>842.8719467227612</v>
       </c>
       <c r="C336" t="n">
-        <v>1968473006.498247</v>
+        <v>842871946.7227612</v>
       </c>
     </row>
     <row r="337">
@@ -4140,10 +4140,10 @@
         <v>0.925</v>
       </c>
       <c r="B337" t="n">
-        <v>1970.45759978327</v>
+        <v>843.3034096384243</v>
       </c>
       <c r="C337" t="n">
-        <v>1970457599.78327</v>
+        <v>843303409.6384244</v>
       </c>
     </row>
     <row r="338">
@@ -4151,10 +4151,10 @@
         <v>0.93</v>
       </c>
       <c r="B338" t="n">
-        <v>1972.433484184658</v>
+        <v>843.7327663933476</v>
       </c>
       <c r="C338" t="n">
-        <v>1972433484.184659</v>
+        <v>843732766.3933475</v>
       </c>
     </row>
     <row r="339">
@@ -4162,10 +4162,10 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B339" t="n">
-        <v>1974.400744412324</v>
+        <v>844.1600385061155</v>
       </c>
       <c r="C339" t="n">
-        <v>1974400744.412324</v>
+        <v>844160038.5061154</v>
       </c>
     </row>
     <row r="340">
@@ -4173,10 +4173,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B340" t="n">
-        <v>1976.359463904809</v>
+        <v>844.5852471618683</v>
       </c>
       <c r="C340" t="n">
-        <v>1976359463.904809</v>
+        <v>844585247.1618683</v>
       </c>
     </row>
     <row r="341">
@@ -4184,10 +4184,10 @@
         <v>0.945</v>
       </c>
       <c r="B341" t="n">
-        <v>1978.309724855011</v>
+        <v>845.0084132192112</v>
       </c>
       <c r="C341" t="n">
-        <v>1978309724.855011</v>
+        <v>845008413.2192112</v>
       </c>
     </row>
     <row r="342">
@@ -4195,10 +4195,10 @@
         <v>0.95</v>
       </c>
       <c r="B342" t="n">
-        <v>1980.251608235257</v>
+        <v>845.4295572169435</v>
       </c>
       <c r="C342" t="n">
-        <v>1980251608.235256</v>
+        <v>845429557.2169435</v>
       </c>
     </row>
     <row r="343">
@@ -4206,10 +4206,10 @@
         <v>0.955</v>
       </c>
       <c r="B343" t="n">
-        <v>1982.185193821733</v>
+        <v>845.8486993806147</v>
       </c>
       <c r="C343" t="n">
-        <v>1982185193.821733</v>
+        <v>845848699.3806146</v>
       </c>
     </row>
     <row r="344">
@@ -4217,10 +4217,10 @@
         <v>0.96</v>
       </c>
       <c r="B344" t="n">
-        <v>1984.110560218317</v>
+        <v>846.2658596289133</v>
       </c>
       <c r="C344" t="n">
-        <v>1984110560.218317</v>
+        <v>846265859.6289133</v>
       </c>
     </row>
     <row r="345">
@@ -4228,10 +4228,10 @@
         <v>0.965</v>
       </c>
       <c r="B345" t="n">
-        <v>1986.027784879804</v>
+        <v>846.6810575798917</v>
       </c>
       <c r="C345" t="n">
-        <v>1986027784.879804</v>
+        <v>846681057.5798917</v>
       </c>
     </row>
     <row r="346">
@@ -4239,10 +4239,10 @@
         <v>0.97</v>
       </c>
       <c r="B346" t="n">
-        <v>1987.936944134553</v>
+        <v>847.0943125570348</v>
       </c>
       <c r="C346" t="n">
-        <v>1987936944.134553</v>
+        <v>847094312.5570347</v>
       </c>
     </row>
     <row r="347">
@@ -4250,10 +4250,10 @@
         <v>0.975</v>
       </c>
       <c r="B347" t="n">
-        <v>1989.838113206579</v>
+        <v>847.5056435951738</v>
       </c>
       <c r="C347" t="n">
-        <v>1989838113.206579</v>
+        <v>847505643.5951737</v>
       </c>
     </row>
     <row r="348">
@@ -4261,10 +4261,10 @@
         <v>0.98</v>
       </c>
       <c r="B348" t="n">
-        <v>1991.731366237098</v>
+        <v>847.9150694462529</v>
       </c>
       <c r="C348" t="n">
-        <v>1991731366.237098</v>
+        <v>847915069.4462529</v>
       </c>
     </row>
     <row r="349">
@@ -4272,10 +4272,10 @@
         <v>0.985</v>
       </c>
       <c r="B349" t="n">
-        <v>1993.616776305544</v>
+        <v>848.3226085849518</v>
       </c>
       <c r="C349" t="n">
-        <v>1993616776.305544</v>
+        <v>848322608.5849518</v>
       </c>
     </row>
     <row r="350">
@@ -4283,10 +4283,10 @@
         <v>0.99</v>
       </c>
       <c r="B350" t="n">
-        <v>1995.494415450075</v>
+        <v>848.7282792141679</v>
       </c>
       <c r="C350" t="n">
-        <v>1995494415.450075</v>
+        <v>848728279.2141678</v>
       </c>
     </row>
     <row r="351">
@@ -4294,10 +4294,10 @@
         <v>0.995</v>
       </c>
       <c r="B351" t="n">
-        <v>1997.364354687579</v>
+        <v>849.1320992703638</v>
       </c>
       <c r="C351" t="n">
-        <v>1997364354.687579</v>
+        <v>849132099.2703638</v>
       </c>
     </row>
     <row r="352">
@@ -4305,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="B352" t="n">
-        <v>1999.226664033203</v>
+        <v>849.5340864287833</v>
       </c>
       <c r="C352" t="n">
-        <v>1999226664.033203</v>
+        <v>849534086.4287833</v>
       </c>
     </row>
     <row r="353">
@@ -4316,10 +4316,10 @@
         <v>1.005</v>
       </c>
       <c r="B353" t="n">
-        <v>2001.081412519405</v>
+        <v>849.9342581085388</v>
       </c>
       <c r="C353" t="n">
-        <v>2001081412.519405</v>
+        <v>849934258.1085387</v>
       </c>
     </row>
     <row r="354">
@@ -4327,10 +4327,10 @@
         <v>1.01</v>
       </c>
       <c r="B354" t="n">
-        <v>2002.928668214556</v>
+        <v>850.3326314775759</v>
       </c>
       <c r="C354" t="n">
-        <v>2002928668.214556</v>
+        <v>850332631.4775759</v>
       </c>
     </row>
     <row r="355">
@@ -4338,10 +4338,10 @@
         <v>1.015</v>
       </c>
       <c r="B355" t="n">
-        <v>2004.768498241101</v>
+        <v>850.7292234575179</v>
       </c>
       <c r="C355" t="n">
-        <v>2004768498.241101</v>
+        <v>850729223.457518</v>
       </c>
     </row>
     <row r="356">
@@ -4349,10 +4349,10 @@
         <v>1.02</v>
       </c>
       <c r="B356" t="n">
-        <v>2006.600968793286</v>
+        <v>851.1240507283921</v>
       </c>
       <c r="C356" t="n">
-        <v>2006600968.793286</v>
+        <v>851124050.7283921</v>
       </c>
     </row>
     <row r="357">
@@ -4360,10 +4360,10 @@
         <v>1.025</v>
       </c>
       <c r="B357" t="n">
-        <v>2008.426145154471</v>
+        <v>851.5171297332444</v>
       </c>
       <c r="C357" t="n">
-        <v>2008426145.154471</v>
+        <v>851517129.7332444</v>
       </c>
     </row>
     <row r="358">
@@ -4371,10 +4371,10 @@
         <v>1.03</v>
       </c>
       <c r="B358" t="n">
-        <v>2010.244091714036</v>
+        <v>851.9084766826422</v>
       </c>
       <c r="C358" t="n">
-        <v>2010244091.714036</v>
+        <v>851908476.6826422</v>
       </c>
     </row>
     <row r="359">
@@ -4382,10 +4382,10 @@
         <v>1.035</v>
       </c>
       <c r="B359" t="n">
-        <v>2012.054871983891</v>
+        <v>852.2981075590723</v>
       </c>
       <c r="C359" t="n">
-        <v>2012054871.983891</v>
+        <v>852298107.5590723</v>
       </c>
     </row>
     <row r="360">
@@ -4393,10 +4393,10 @@
         <v>1.04</v>
       </c>
       <c r="B360" t="n">
-        <v>2013.85854861461</v>
+        <v>852.6860381212323</v>
       </c>
       <c r="C360" t="n">
-        <v>2013858548.61461</v>
+        <v>852686038.1212323</v>
       </c>
     </row>
     <row r="361">
@@ -4404,10 +4404,10 @@
         <v>1.045</v>
       </c>
       <c r="B361" t="n">
-        <v>2015.65518341118</v>
+        <v>853.0722839082232</v>
       </c>
       <c r="C361" t="n">
-        <v>2015655183.41118</v>
+        <v>853072283.9082232</v>
       </c>
     </row>
     <row r="362">
@@ -4415,10 +4415,10 @@
         <v>1.05</v>
       </c>
       <c r="B362" t="n">
-        <v>2017.444837348405</v>
+        <v>853.4568602436433</v>
       </c>
       <c r="C362" t="n">
-        <v>2017444837.348405</v>
+        <v>853456860.2436433</v>
       </c>
     </row>
     <row r="363">
@@ -4426,10 +4426,10 @@
         <v>1.055</v>
       </c>
       <c r="B363" t="n">
-        <v>2019.22757058594</v>
+        <v>853.8397822395855</v>
       </c>
       <c r="C363" t="n">
-        <v>2019227570.58594</v>
+        <v>853839782.2395855</v>
       </c>
     </row>
     <row r="364">
@@ -4437,10 +4437,10 @@
         <v>1.06</v>
       </c>
       <c r="B364" t="n">
-        <v>2021.003442482996</v>
+        <v>854.2210648005439</v>
       </c>
       <c r="C364" t="n">
-        <v>2021003442.482996</v>
+        <v>854221064.8005439</v>
       </c>
     </row>
     <row r="365">
@@ -4448,10 +4448,10 @@
         <v>1.065</v>
       </c>
       <c r="B365" t="n">
-        <v>2022.772511612706</v>
+        <v>854.6007226272275</v>
       </c>
       <c r="C365" t="n">
-        <v>2022772511.612706</v>
+        <v>854600722.6272274</v>
       </c>
     </row>
     <row r="366">
@@ -4459,10 +4459,10 @@
         <v>1.07</v>
       </c>
       <c r="B366" t="n">
-        <v>2024.534835776167</v>
+        <v>854.97877022029</v>
       </c>
       <c r="C366" t="n">
-        <v>2024534835.776167</v>
+        <v>854978770.2202901</v>
       </c>
     </row>
     <row r="367">
@@ -4470,10 +4470,10 @@
         <v>1.075</v>
       </c>
       <c r="B367" t="n">
-        <v>2026.290472016169</v>
+        <v>855.3552218839706</v>
       </c>
       <c r="C367" t="n">
-        <v>2026290472.016169</v>
+        <v>855355221.8839705</v>
       </c>
     </row>
     <row r="368">
@@ -4481,10 +4481,10 @@
         <v>1.08</v>
       </c>
       <c r="B368" t="n">
-        <v>2028.039476630614</v>
+        <v>855.7300917296543</v>
       </c>
       <c r="C368" t="n">
-        <v>2028039476.630615</v>
+        <v>855730091.7296543</v>
       </c>
     </row>
     <row r="369">
@@ -4492,10 +4492,10 @@
         <v>1.085</v>
       </c>
       <c r="B369" t="n">
-        <v>2029.781905185645</v>
+        <v>856.1033936793503</v>
       </c>
       <c r="C369" t="n">
-        <v>2029781905.185645</v>
+        <v>856103393.6793504</v>
       </c>
     </row>
     <row r="370">
@@ -4503,10 +4503,10 @@
         <v>1.09</v>
       </c>
       <c r="B370" t="n">
-        <v>2031.517812528468</v>
+        <v>856.4751414690932</v>
       </c>
       <c r="C370" t="n">
-        <v>2031517812.528468</v>
+        <v>856475141.4690932</v>
       </c>
     </row>
     <row r="371">
@@ -4514,10 +4514,10 @@
         <v>1.095</v>
       </c>
       <c r="B371" t="n">
-        <v>2033.247252799913</v>
+        <v>856.845348652266</v>
       </c>
       <c r="C371" t="n">
-        <v>2033247252.799913</v>
+        <v>856845348.652266</v>
       </c>
     </row>
     <row r="372">
@@ -4525,10 +4525,10 @@
         <v>1.1</v>
       </c>
       <c r="B372" t="n">
-        <v>2034.970279446699</v>
+        <v>857.2140286028508</v>
       </c>
       <c r="C372" t="n">
-        <v>2034970279.446699</v>
+        <v>857214028.6028508</v>
       </c>
     </row>
     <row r="373">
@@ -4536,10 +4536,10 @@
         <v>1.105</v>
       </c>
       <c r="B373" t="n">
-        <v>2036.686945233447</v>
+        <v>857.5811945186056</v>
       </c>
       <c r="C373" t="n">
-        <v>2036686945.233447</v>
+        <v>857581194.5186056</v>
       </c>
     </row>
     <row r="374">
@@ -4547,10 +4547,10 @@
         <v>1.11</v>
       </c>
       <c r="B374" t="n">
-        <v>2038.397302254421</v>
+        <v>857.9468594241719</v>
       </c>
       <c r="C374" t="n">
-        <v>2038397302.254421</v>
+        <v>857946859.4241718</v>
       </c>
     </row>
     <row r="375">
@@ -4558,10 +4558,10 @@
         <v>1.115</v>
       </c>
       <c r="B375" t="n">
-        <v>2040.101401945022</v>
+        <v>858.3110361741134</v>
       </c>
       <c r="C375" t="n">
-        <v>2040101401.945022</v>
+        <v>858311036.1741134</v>
       </c>
     </row>
     <row r="376">
@@ -4569,10 +4569,10 @@
         <v>1.12</v>
       </c>
       <c r="B376" t="n">
-        <v>2041.799295093029</v>
+        <v>858.6737374558871</v>
       </c>
       <c r="C376" t="n">
-        <v>2041799295.093029</v>
+        <v>858673737.4558871</v>
       </c>
     </row>
     <row r="377">
@@ -4580,10 +4580,10 @@
         <v>1.125</v>
       </c>
       <c r="B377" t="n">
-        <v>2043.491031849606</v>
+        <v>859.0349757927513</v>
       </c>
       <c r="C377" t="n">
-        <v>2043491031.849606</v>
+        <v>859034975.7927513</v>
       </c>
     </row>
     <row r="378">
@@ -4591,10 +4591,10 @@
         <v>1.13</v>
       </c>
       <c r="B378" t="n">
-        <v>2045.176661740065</v>
+        <v>859.3947635466089</v>
       </c>
       <c r="C378" t="n">
-        <v>2045176661.740065</v>
+        <v>859394763.5466089</v>
       </c>
     </row>
     <row r="379">
@@ -4602,10 +4602,10 @@
         <v>1.135</v>
       </c>
       <c r="B379" t="n">
-        <v>2046.856233674407</v>
+        <v>859.7531129207896</v>
       </c>
       <c r="C379" t="n">
-        <v>2046856233.674407</v>
+        <v>859753112.9207896</v>
       </c>
     </row>
     <row r="380">
@@ -4613,10 +4613,10 @@
         <v>1.14</v>
       </c>
       <c r="B380" t="n">
-        <v>2048.529795957641</v>
+        <v>860.1100359627719</v>
       </c>
       <c r="C380" t="n">
-        <v>2048529795.957641</v>
+        <v>860110035.9627719</v>
       </c>
     </row>
     <row r="381">
@@ -4624,10 +4624,10 @@
         <v>1.145</v>
       </c>
       <c r="B381" t="n">
-        <v>2050.197396299874</v>
+        <v>860.4655445668468</v>
       </c>
       <c r="C381" t="n">
-        <v>2050197396.299874</v>
+        <v>860465544.5668468</v>
       </c>
     </row>
     <row r="382">
@@ -4635,10 +4635,10 @@
         <v>1.15</v>
       </c>
       <c r="B382" t="n">
-        <v>2051.859081826209</v>
+        <v>860.8196504767254</v>
       </c>
       <c r="C382" t="n">
-        <v>2051859081.826209</v>
+        <v>860819650.4767255</v>
       </c>
     </row>
     <row r="383">
@@ -4646,10 +4646,10 @@
         <v>1.155</v>
       </c>
       <c r="B383" t="n">
-        <v>2053.514899086416</v>
+        <v>861.1723652880891</v>
       </c>
       <c r="C383" t="n">
-        <v>2053514899.086416</v>
+        <v>861172365.288089</v>
       </c>
     </row>
     <row r="384">
@@ -4657,10 +4657,10 @@
         <v>1.16</v>
       </c>
       <c r="B384" t="n">
-        <v>2055.164894064415</v>
+        <v>861.5237004510875</v>
       </c>
       <c r="C384" t="n">
-        <v>2055164894.064415</v>
+        <v>861523700.4510875</v>
       </c>
     </row>
     <row r="385">
@@ -4668,10 +4668,10 @@
         <v>1.165</v>
       </c>
       <c r="B385" t="n">
-        <v>2056.809112187559</v>
+        <v>861.873667272783</v>
       </c>
       <c r="C385" t="n">
-        <v>2056809112.187559</v>
+        <v>861873667.272783</v>
       </c>
     </row>
     <row r="386">
@@ -4679,10 +4679,10 @@
         <v>1.17</v>
       </c>
       <c r="B386" t="n">
-        <v>2058.447598335722</v>
+        <v>862.2222769195436</v>
       </c>
       <c r="C386" t="n">
-        <v>2058447598.335721</v>
+        <v>862222276.9195435</v>
       </c>
     </row>
     <row r="387">
@@ -4690,10 +4690,10 @@
         <v>1.175</v>
       </c>
       <c r="B387" t="n">
-        <v>2060.080396850207</v>
+        <v>862.5695404193866</v>
       </c>
       <c r="C387" t="n">
-        <v>2060080396.850207</v>
+        <v>862569540.4193866</v>
       </c>
     </row>
     <row r="388">
@@ -4701,10 +4701,10 @@
         <v>1.18</v>
       </c>
       <c r="B388" t="n">
-        <v>2061.707551542469</v>
+        <v>862.9154686642725</v>
       </c>
       <c r="C388" t="n">
-        <v>2061707551.542469</v>
+        <v>862915468.6642724</v>
       </c>
     </row>
     <row r="389">
@@ -4712,10 +4712,10 @@
         <v>1.185</v>
       </c>
       <c r="B389" t="n">
-        <v>2063.329105702656</v>
+        <v>863.2600724123515</v>
       </c>
       <c r="C389" t="n">
-        <v>2063329105.702656</v>
+        <v>863260072.4123515</v>
       </c>
     </row>
     <row r="390">
@@ -4723,10 +4723,10 @@
         <v>1.19</v>
       </c>
       <c r="B390" t="n">
-        <v>2064.945102107985</v>
+        <v>863.6033622901655</v>
       </c>
       <c r="C390" t="n">
-        <v>2064945102.107985</v>
+        <v>863603362.2901654</v>
       </c>
     </row>
     <row r="391">
@@ -4734,10 +4734,10 @@
         <v>1.195</v>
       </c>
       <c r="B391" t="n">
-        <v>2066.555583030942</v>
+        <v>863.9453487948006</v>
       </c>
       <c r="C391" t="n">
-        <v>2066555583.030942</v>
+        <v>863945348.7948005</v>
       </c>
     </row>
     <row r="392">
@@ -4745,10 +4745,10 @@
         <v>1.2</v>
       </c>
       <c r="B392" t="n">
-        <v>2068.160590247322</v>
+        <v>864.2860422960003</v>
       </c>
       <c r="C392" t="n">
-        <v>2068160590.247323</v>
+        <v>864286042.2960004</v>
       </c>
     </row>
     <row r="393">
@@ -4756,10 +4756,10 @@
         <v>1.205</v>
       </c>
       <c r="B393" t="n">
-        <v>2069.760165044107</v>
+        <v>864.6254530382321</v>
       </c>
       <c r="C393" t="n">
-        <v>2069760165.044106</v>
+        <v>864625453.0382321</v>
       </c>
     </row>
     <row r="394">
@@ -4767,10 +4767,10 @@
         <v>1.21</v>
       </c>
       <c r="B394" t="n">
-        <v>2071.354348227178</v>
+        <v>864.963591142714</v>
       </c>
       <c r="C394" t="n">
-        <v>2071354348.227178</v>
+        <v>864963591.142714</v>
       </c>
     </row>
     <row r="395">
@@ -4778,10 +4778,10 @@
         <v>1.215</v>
       </c>
       <c r="B395" t="n">
-        <v>2072.943180128895</v>
+        <v>865.3004666093996</v>
       </c>
       <c r="C395" t="n">
-        <v>2072943180.128895</v>
+        <v>865300466.6093996</v>
       </c>
     </row>
     <row r="396">
@@ -4789,10 +4789,10 @@
         <v>1.22</v>
       </c>
       <c r="B396" t="n">
-        <v>2074.526700615503</v>
+        <v>865.6360893189217</v>
       </c>
       <c r="C396" t="n">
-        <v>2074526700.615503</v>
+        <v>865636089.3189217</v>
       </c>
     </row>
     <row r="397">
@@ -4800,10 +4800,10 @@
         <v>1.225</v>
       </c>
       <c r="B397" t="n">
-        <v>2076.104949094409</v>
+        <v>865.9704690345001</v>
       </c>
       <c r="C397" t="n">
-        <v>2076104949.094409</v>
+        <v>865970469.0345001</v>
       </c>
     </row>
     <row r="398">
@@ -4811,10 +4811,10 @@
         <v>1.23</v>
       </c>
       <c r="B398" t="n">
-        <v>2077.677964521309</v>
+        <v>866.3036154038082</v>
       </c>
       <c r="C398" t="n">
-        <v>2077677964.521309</v>
+        <v>866303615.4038082</v>
       </c>
     </row>
     <row r="399">
@@ -4822,10 +4822,10 @@
         <v>1.235</v>
       </c>
       <c r="B399" t="n">
-        <v>2079.245785407176</v>
+        <v>866.6355379608038</v>
       </c>
       <c r="C399" t="n">
-        <v>2079245785.407176</v>
+        <v>866635537.9608039</v>
       </c>
     </row>
     <row r="400">
@@ -4833,10 +4833,10 @@
         <v>1.24</v>
       </c>
       <c r="B400" t="n">
-        <v>2080.808449825116</v>
+        <v>866.9662461275238</v>
       </c>
       <c r="C400" t="n">
-        <v>2080808449.825115</v>
+        <v>866966246.1275239</v>
       </c>
     </row>
     <row r="401">
@@ -4844,10 +4844,10 @@
         <v>1.245</v>
       </c>
       <c r="B401" t="n">
-        <v>2082.365995417084</v>
+        <v>867.2957492158431</v>
       </c>
       <c r="C401" t="n">
-        <v>2082365995.417084</v>
+        <v>867295749.2158431</v>
       </c>
     </row>
     <row r="402">
@@ -4855,10 +4855,10 @@
         <v>1.25</v>
       </c>
       <c r="B402" t="n">
-        <v>2083.918459400485</v>
+        <v>867.6240564291987</v>
       </c>
       <c r="C402" t="n">
-        <v>2083918459.400485</v>
+        <v>867624056.4291987</v>
       </c>
     </row>
     <row r="403">
@@ -4866,10 +4866,10 @@
         <v>1.255</v>
       </c>
       <c r="B403" t="n">
-        <v>2085.465878574623</v>
+        <v>867.9511768642802</v>
       </c>
       <c r="C403" t="n">
-        <v>2085465878.574623</v>
+        <v>867951176.8642802</v>
       </c>
     </row>
     <row r="404">
@@ -4877,10 +4877,10 @@
         <v>1.26</v>
       </c>
       <c r="B404" t="n">
-        <v>2087.008289327056</v>
+        <v>868.2771195126883</v>
       </c>
       <c r="C404" t="n">
-        <v>2087008289.327055</v>
+        <v>868277119.5126883</v>
       </c>
     </row>
     <row r="405">
@@ -4888,10 +4888,10 @@
         <v>1.265</v>
       </c>
       <c r="B405" t="n">
-        <v>2088.545727639806</v>
+        <v>868.601893262559</v>
       </c>
       <c r="C405" t="n">
-        <v>2088545727.639806</v>
+        <v>868601893.2625589</v>
       </c>
     </row>
     <row r="406">
@@ -4899,10 +4899,10 @@
         <v>1.27</v>
       </c>
       <c r="B406" t="n">
-        <v>2090.078229095468</v>
+        <v>868.9255069001587</v>
       </c>
       <c r="C406" t="n">
-        <v>2090078229.095468</v>
+        <v>868925506.9001586</v>
       </c>
     </row>
     <row r="407">
@@ -4910,10 +4910,10 @@
         <v>1.275</v>
       </c>
       <c r="B407" t="n">
-        <v>2091.605828883188</v>
+        <v>869.2479691114463</v>
       </c>
       <c r="C407" t="n">
-        <v>2091605828.883188</v>
+        <v>869247969.1114463</v>
       </c>
     </row>
     <row r="408">
@@ -4921,10 +4921,10 @@
         <v>1.28</v>
       </c>
       <c r="B408" t="n">
-        <v>2093.128561804544</v>
+        <v>869.5692884836075</v>
       </c>
       <c r="C408" t="n">
-        <v>2093128561.804543</v>
+        <v>869569288.4836074</v>
       </c>
     </row>
     <row r="409">
@@ -4932,10 +4932,10 @@
         <v>1.285</v>
       </c>
       <c r="B409" t="n">
-        <v>2094.646462279303</v>
+        <v>869.8894735065584</v>
       </c>
       <c r="C409" t="n">
-        <v>2094646462.279303</v>
+        <v>869889473.5065584</v>
       </c>
     </row>
     <row r="410">
@@ -4943,10 +4943,10 @@
         <v>1.29</v>
       </c>
       <c r="B410" t="n">
-        <v>2096.15956435108</v>
+        <v>870.2085325744201</v>
       </c>
       <c r="C410" t="n">
-        <v>2096159564.35108</v>
+        <v>870208532.5744201</v>
       </c>
     </row>
     <row r="411">
@@ -4954,10 +4954,10 @@
         <v>1.295</v>
       </c>
       <c r="B411" t="n">
-        <v>2097.66790169289</v>
+        <v>870.5264739869669</v>
       </c>
       <c r="C411" t="n">
-        <v>2097667901.69289</v>
+        <v>870526473.986967</v>
       </c>
     </row>
     <row r="412">
@@ -4965,10 +4965,10 @@
         <v>1.3</v>
       </c>
       <c r="B412" t="n">
-        <v>2099.171507612586</v>
+        <v>870.8433059510461</v>
       </c>
       <c r="C412" t="n">
-        <v>2099171507.612586</v>
+        <v>870843305.9510461</v>
       </c>
     </row>
     <row r="413">
@@ -4976,10 +4976,10 @@
         <v>1.305</v>
       </c>
       <c r="B413" t="n">
-        <v>2100.670415058217</v>
+        <v>871.1590365819698</v>
       </c>
       <c r="C413" t="n">
-        <v>2100670415.058217</v>
+        <v>871159036.5819697</v>
       </c>
     </row>
     <row r="414">
@@ -4987,10 +4987,10 @@
         <v>1.31</v>
       </c>
       <c r="B414" t="n">
-        <v>2102.164656623268</v>
+        <v>871.4736739048841</v>
       </c>
       <c r="C414" t="n">
-        <v>2102164656.623268</v>
+        <v>871473673.9048841</v>
       </c>
     </row>
     <row r="415">
@@ -4998,10 +4998,10 @@
         <v>1.315</v>
       </c>
       <c r="B415" t="n">
-        <v>2103.654264551815</v>
+        <v>871.7872258561091</v>
       </c>
       <c r="C415" t="n">
-        <v>2103654264.551815</v>
+        <v>871787225.8561091</v>
       </c>
     </row>
     <row r="416">
@@ -5009,10 +5009,10 @@
         <v>1.32</v>
       </c>
       <c r="B416" t="n">
-        <v>2105.139270743581</v>
+        <v>872.0997002844556</v>
       </c>
       <c r="C416" t="n">
-        <v>2105139270.743581</v>
+        <v>872099700.2844555</v>
       </c>
     </row>
     <row r="417">
@@ -5020,10 +5020,10 @@
         <v>1.325</v>
       </c>
       <c r="B417" t="n">
-        <v>2106.619706758904</v>
+        <v>872.411104952518</v>
       </c>
       <c r="C417" t="n">
-        <v>2106619706.758904</v>
+        <v>872411104.952518</v>
       </c>
     </row>
     <row r="418">
@@ -5031,10 +5031,10 @@
         <v>1.33</v>
       </c>
       <c r="B418" t="n">
-        <v>2108.095603823608</v>
+        <v>872.7214475379413</v>
       </c>
       <c r="C418" t="n">
-        <v>2108095603.823608</v>
+        <v>872721447.5379413</v>
       </c>
     </row>
     <row r="419">
@@ -5042,10 +5042,10 @@
         <v>1.335</v>
       </c>
       <c r="B419" t="n">
-        <v>2109.566992833797</v>
+        <v>873.0307356346669</v>
       </c>
       <c r="C419" t="n">
-        <v>2109566992.833797</v>
+        <v>873030735.6346669</v>
       </c>
     </row>
     <row r="420">
@@ -5053,10 +5053,10 @@
         <v>1.34</v>
       </c>
       <c r="B420" t="n">
-        <v>2111.03390436055</v>
+        <v>873.3389767541548</v>
       </c>
       <c r="C420" t="n">
-        <v>2111033904.36055</v>
+        <v>873338976.7541548</v>
       </c>
     </row>
     <row r="421">
@@ -5064,10 +5064,10 @@
         <v>1.345</v>
       </c>
       <c r="B421" t="n">
-        <v>2112.496368654541</v>
+        <v>873.6461783265822</v>
       </c>
       <c r="C421" t="n">
-        <v>2112496368.654541</v>
+        <v>873646178.3265822</v>
       </c>
     </row>
     <row r="422">
@@ -5075,10 +5075,10 @@
         <v>1.35</v>
       </c>
       <c r="B422" t="n">
-        <v>2113.954415650576</v>
+        <v>873.9523477020226</v>
       </c>
       <c r="C422" t="n">
-        <v>2113954415.650576</v>
+        <v>873952347.7020227</v>
       </c>
     </row>
     <row r="423">
@@ -5086,10 +5086,10 @@
         <v>1.355</v>
       </c>
       <c r="B423" t="n">
-        <v>2115.40807497204</v>
+        <v>874.2574921516015</v>
       </c>
       <c r="C423" t="n">
-        <v>2115408074.97204</v>
+        <v>874257492.1516014</v>
       </c>
     </row>
     <row r="424">
@@ -5097,10 +5097,10 @@
         <v>1.36</v>
       </c>
       <c r="B424" t="n">
-        <v>2116.857375935277</v>
+        <v>874.5616188686326</v>
       </c>
       <c r="C424" t="n">
-        <v>2116857375.935277</v>
+        <v>874561618.8686327</v>
       </c>
     </row>
     <row r="425">
@@ -5108,10 +5108,10 @@
         <v>1.365</v>
       </c>
       <c r="B425" t="n">
-        <v>2118.302347553889</v>
+        <v>874.8647349697331</v>
       </c>
       <c r="C425" t="n">
-        <v>2118302347.553889</v>
+        <v>874864734.9697331</v>
       </c>
     </row>
     <row r="426">
@@ -5119,10 +5119,10 @@
         <v>1.37</v>
       </c>
       <c r="B426" t="n">
-        <v>2119.743018542952</v>
+        <v>875.1668474959176</v>
       </c>
       <c r="C426" t="n">
-        <v>2119743018.542952</v>
+        <v>875166847.4959177</v>
       </c>
     </row>
     <row r="427">
@@ -5130,10 +5130,10 @@
         <v>1.375</v>
       </c>
       <c r="B427" t="n">
-        <v>2121.179417323169</v>
+        <v>875.4679634136758</v>
       </c>
       <c r="C427" t="n">
-        <v>2121179417.323169</v>
+        <v>875467963.4136758</v>
       </c>
     </row>
     <row r="428">
@@ -5141,10 +5141,10 @@
         <v>1.38</v>
       </c>
       <c r="B428" t="n">
-        <v>2122.611572024942</v>
+        <v>875.7680896160269</v>
       </c>
       <c r="C428" t="n">
-        <v>2122611572.024942</v>
+        <v>875768089.616027</v>
       </c>
     </row>
     <row r="429">
@@ -5152,10 +5152,10 @@
         <v>1.385</v>
       </c>
       <c r="B429" t="n">
-        <v>2124.039510492381</v>
+        <v>876.0672329235589</v>
       </c>
       <c r="C429" t="n">
-        <v>2124039510.492381</v>
+        <v>876067232.9235588</v>
       </c>
     </row>
     <row r="430">
@@ -5163,10 +5163,10 @@
         <v>1.39</v>
       </c>
       <c r="B430" t="n">
-        <v>2125.463260287233</v>
+        <v>876.3654000854472</v>
       </c>
       <c r="C430" t="n">
-        <v>2125463260.287233</v>
+        <v>876365400.0854472</v>
       </c>
     </row>
     <row r="431">
@@ -5174,10 +5174,10 @@
         <v>1.395</v>
       </c>
       <c r="B431" t="n">
-        <v>2126.882848692754</v>
+        <v>876.6625977804557</v>
       </c>
       <c r="C431" t="n">
-        <v>2126882848.692754</v>
+        <v>876662597.7804557</v>
       </c>
     </row>
     <row r="432">
@@ -5185,10 +5185,10 @@
         <v>1.4</v>
       </c>
       <c r="B432" t="n">
-        <v>2128.298302717505</v>
+        <v>876.9588326179219</v>
       </c>
       <c r="C432" t="n">
-        <v>2128298302.717505</v>
+        <v>876958832.6179218</v>
       </c>
     </row>
     <row r="433">
@@ -5196,10 +5196,10 @@
         <v>1.405</v>
       </c>
       <c r="B433" t="n">
-        <v>2129.709649099092</v>
+        <v>877.2541111387222</v>
       </c>
       <c r="C433" t="n">
-        <v>2129709649.099092</v>
+        <v>877254111.1387222</v>
       </c>
     </row>
     <row r="434">
@@ -5207,10 +5207,10 @@
         <v>1.41</v>
       </c>
       <c r="B434" t="n">
-        <v>2131.116914307832</v>
+        <v>877.5484398162225</v>
       </c>
       <c r="C434" t="n">
-        <v>2131116914.307832</v>
+        <v>877548439.8162225</v>
       </c>
     </row>
     <row r="435">
@@ -5218,10 +5218,10 @@
         <v>1.415</v>
       </c>
       <c r="B435" t="n">
-        <v>2132.520124550368</v>
+        <v>877.8418250572109</v>
       </c>
       <c r="C435" t="n">
-        <v>2132520124.550368</v>
+        <v>877841825.0572109</v>
       </c>
     </row>
     <row r="436">
@@ -5229,10 +5229,10 @@
         <v>1.42</v>
       </c>
       <c r="B436" t="n">
-        <v>2133.919305773208</v>
+        <v>878.1342732028161</v>
       </c>
       <c r="C436" t="n">
-        <v>2133919305.773208</v>
+        <v>878134273.2028161</v>
       </c>
     </row>
     <row r="437">
@@ -5240,10 +5240,10 @@
         <v>1.425</v>
       </c>
       <c r="B437" t="n">
-        <v>2135.314483666221</v>
+        <v>878.4257905294069</v>
       </c>
       <c r="C437" t="n">
-        <v>2135314483.666221</v>
+        <v>878425790.5294069</v>
       </c>
     </row>
     <row r="438">
@@ -5251,10 +5251,10 @@
         <v>1.43</v>
       </c>
       <c r="B438" t="n">
-        <v>2136.70568366606</v>
+        <v>878.7163832494793</v>
       </c>
       <c r="C438" t="n">
-        <v>2136705683.66606</v>
+        <v>878716383.2494793</v>
       </c>
     </row>
     <row r="439">
@@ -5262,10 +5262,10 @@
         <v>1.435</v>
       </c>
       <c r="B439" t="n">
-        <v>2138.092930959535</v>
+        <v>879.0060575125275</v>
       </c>
       <c r="C439" t="n">
-        <v>2138092930.959535</v>
+        <v>879006057.5125275</v>
       </c>
     </row>
     <row r="440">
@@ -5273,10 +5273,10 @@
         <v>1.44</v>
       </c>
       <c r="B440" t="n">
-        <v>2139.476250486927</v>
+        <v>879.2948194058981</v>
       </c>
       <c r="C440" t="n">
-        <v>2139476250.486927</v>
+        <v>879294819.4058981</v>
       </c>
     </row>
     <row r="441">
@@ -5284,10 +5284,10 @@
         <v>1.445</v>
       </c>
       <c r="B441" t="n">
-        <v>2140.855666945246</v>
+        <v>879.5826749556334</v>
       </c>
       <c r="C441" t="n">
-        <v>2140855666.945246</v>
+        <v>879582674.9556334</v>
       </c>
     </row>
     <row r="442">
@@ -5295,10 +5295,10 @@
         <v>1.45</v>
       </c>
       <c r="B442" t="n">
-        <v>2142.231204791441</v>
+        <v>879.8696301272969</v>
       </c>
       <c r="C442" t="n">
-        <v>2142231204.791441</v>
+        <v>879869630.1272969</v>
       </c>
     </row>
     <row r="443">
@@ -5306,10 +5306,10 @@
         <v>1.455</v>
       </c>
       <c r="B443" t="n">
-        <v>2143.602888245544</v>
+        <v>880.155690826787</v>
       </c>
       <c r="C443" t="n">
-        <v>2143602888.245544</v>
+        <v>880155690.826787</v>
       </c>
     </row>
     <row r="444">
@@ -5317,10 +5317,10 @@
         <v>1.46</v>
       </c>
       <c r="B444" t="n">
-        <v>2144.970741293776</v>
+        <v>880.4408629011366</v>
       </c>
       <c r="C444" t="n">
-        <v>2144970741.293777</v>
+        <v>880440862.9011366</v>
       </c>
     </row>
     <row r="445">
@@ -5328,10 +5328,10 @@
         <v>1.465</v>
       </c>
       <c r="B445" t="n">
-        <v>2146.334787691596</v>
+        <v>880.7251521392984</v>
       </c>
       <c r="C445" t="n">
-        <v>2146334787.691596</v>
+        <v>880725152.1392984</v>
       </c>
     </row>
     <row r="446">
@@ -5339,10 +5339,10 @@
         <v>1.47</v>
       </c>
       <c r="B446" t="n">
-        <v>2147.695050966694</v>
+        <v>881.0085642729182</v>
       </c>
       <c r="C446" t="n">
-        <v>2147695050.966693</v>
+        <v>881008564.2729182</v>
       </c>
     </row>
     <row r="447">
@@ -5350,10 +5350,10 @@
         <v>1.475</v>
       </c>
       <c r="B447" t="n">
-        <v>2149.051554421946</v>
+        <v>881.2911049770946</v>
       </c>
       <c r="C447" t="n">
-        <v>2149051554.421946</v>
+        <v>881291104.9770947</v>
       </c>
     </row>
     <row r="448">
@@ -5361,10 +5361,10 @@
         <v>1.48</v>
       </c>
       <c r="B448" t="n">
-        <v>2150.404321138315</v>
+        <v>881.572779871127</v>
       </c>
       <c r="C448" t="n">
-        <v>2150404321.138316</v>
+        <v>881572779.871127</v>
       </c>
     </row>
     <row r="449">
@@ -5372,10 +5372,10 @@
         <v>1.485</v>
       </c>
       <c r="B449" t="n">
-        <v>2151.753373977705</v>
+        <v>881.8535945192499</v>
       </c>
       <c r="C449" t="n">
-        <v>2151753373.977705</v>
+        <v>881853594.5192499</v>
       </c>
     </row>
     <row r="450">
@@ -5383,10 +5383,10 @@
         <v>1.49</v>
       </c>
       <c r="B450" t="n">
-        <v>2153.098735585768</v>
+        <v>882.1335544313554</v>
       </c>
       <c r="C450" t="n">
-        <v>2153098735.585768</v>
+        <v>882133554.4313554</v>
       </c>
     </row>
     <row r="451">
@@ -5394,10 +5394,10 @@
         <v>1.495</v>
       </c>
       <c r="B451" t="n">
-        <v>2154.440428394668</v>
+        <v>882.4126650637055</v>
       </c>
       <c r="C451" t="n">
-        <v>2154440428.394668</v>
+        <v>882412665.0637054</v>
       </c>
     </row>
     <row r="452">
@@ -5405,10 +5405,10 @@
         <v>1.5</v>
       </c>
       <c r="B452" t="n">
-        <v>2155.778474625803</v>
+        <v>882.6909318196304</v>
       </c>
       <c r="C452" t="n">
-        <v>2155778474.625803</v>
+        <v>882690931.8196304</v>
       </c>
     </row>
     <row r="453">
@@ -5416,10 +5416,10 @@
         <v>1.505</v>
       </c>
       <c r="B453" t="n">
-        <v>2157.112896292475</v>
+        <v>882.9683600502166</v>
       </c>
       <c r="C453" t="n">
-        <v>2157112896.292475</v>
+        <v>882968360.0502166</v>
       </c>
     </row>
     <row r="454">
@@ -5427,10 +5427,10 @@
         <v>1.51</v>
       </c>
       <c r="B454" t="n">
-        <v>2158.443715202525</v>
+        <v>883.2449550549836</v>
       </c>
       <c r="C454" t="n">
-        <v>2158443715.202525</v>
+        <v>883244955.0549836</v>
       </c>
     </row>
     <row r="455">
@@ -5438,10 +5438,10 @@
         <v>1.515</v>
       </c>
       <c r="B455" t="n">
-        <v>2159.770952960925</v>
+        <v>883.5207220825504</v>
       </c>
       <c r="C455" t="n">
-        <v>2159770952.960925</v>
+        <v>883520722.0825504</v>
       </c>
     </row>
     <row r="456">
@@ -5449,10 +5449,10 @@
         <v>1.52</v>
       </c>
       <c r="B456" t="n">
-        <v>2161.094630972323</v>
+        <v>883.7956663312892</v>
       </c>
       <c r="C456" t="n">
-        <v>2161094630.972322</v>
+        <v>883795666.3312892</v>
       </c>
     </row>
     <row r="457">
@@ -5460,10 +5460,10 @@
         <v>1.525</v>
       </c>
       <c r="B457" t="n">
-        <v>2162.414770443557</v>
+        <v>884.0697929499711</v>
       </c>
       <c r="C457" t="n">
-        <v>2162414770.443557</v>
+        <v>884069792.9499711</v>
       </c>
     </row>
     <row r="458">
@@ -5471,10 +5471,10 @@
         <v>1.53</v>
       </c>
       <c r="B458" t="n">
-        <v>2163.731392386123</v>
+        <v>884.3431070383994</v>
       </c>
       <c r="C458" t="n">
-        <v>2163731392.386123</v>
+        <v>884343107.0383993</v>
       </c>
     </row>
     <row r="459">
@@ -5482,10 +5482,10 @@
         <v>1.535</v>
       </c>
       <c r="B459" t="n">
-        <v>2165.044517618604</v>
+        <v>884.6156136480332</v>
       </c>
       <c r="C459" t="n">
-        <v>2165044517.618605</v>
+        <v>884615613.6480333</v>
       </c>
     </row>
     <row r="460">
@@ -5493,10 +5493,10 @@
         <v>1.54</v>
       </c>
       <c r="B460" t="n">
-        <v>2166.354166769066</v>
+        <v>884.8873177826032</v>
       </c>
       <c r="C460" t="n">
-        <v>2166354166.769066</v>
+        <v>884887317.7826031</v>
       </c>
     </row>
     <row r="461">
@@ -5504,10 +5504,10 @@
         <v>1.545</v>
       </c>
       <c r="B461" t="n">
-        <v>2167.660360277408</v>
+        <v>885.1582243987136</v>
       </c>
       <c r="C461" t="n">
-        <v>2167660360.277409</v>
+        <v>885158224.3987136</v>
       </c>
     </row>
     <row r="462">
@@ -5515,10 +5515,10 @@
         <v>1.55</v>
       </c>
       <c r="B462" t="n">
-        <v>2168.96311839769</v>
+        <v>885.4283384064386</v>
       </c>
       <c r="C462" t="n">
-        <v>2168963118.39769</v>
+        <v>885428338.4064386</v>
       </c>
     </row>
     <row r="463">
@@ -5526,10 +5526,10 @@
         <v>1.555</v>
       </c>
       <c r="B463" t="n">
-        <v>2170.262461200406</v>
+        <v>885.6976646699061</v>
       </c>
       <c r="C463" t="n">
-        <v>2170262461.200406</v>
+        <v>885697664.6699061</v>
       </c>
     </row>
     <row r="464">
@@ -5537,10 +5537,10 @@
         <v>1.56</v>
       </c>
       <c r="B464" t="n">
-        <v>2171.558408574736</v>
+        <v>885.9662080078757</v>
       </c>
       <c r="C464" t="n">
-        <v>2171558408.574736</v>
+        <v>885966208.0078757</v>
       </c>
     </row>
     <row r="465">
@@ -5548,10 +5548,10 @@
         <v>1.565</v>
       </c>
       <c r="B465" t="n">
-        <v>2172.850980230761</v>
+        <v>886.2339731943036</v>
       </c>
       <c r="C465" t="n">
-        <v>2172850980.230761</v>
+        <v>886233973.1943036</v>
       </c>
     </row>
     <row r="466">
@@ -5559,10 +5559,10 @@
         <v>1.57</v>
       </c>
       <c r="B466" t="n">
-        <v>2174.14019570164</v>
+        <v>886.5009649589022</v>
       </c>
       <c r="C466" t="n">
-        <v>2174140195.70164</v>
+        <v>886500964.9589021</v>
       </c>
     </row>
     <row r="467">
@@ -5570,10 +5570,10 @@
         <v>1.575</v>
       </c>
       <c r="B467" t="n">
-        <v>2175.426074345752</v>
+        <v>886.7671879876885</v>
       </c>
       <c r="C467" t="n">
-        <v>2175426074.345752</v>
+        <v>886767187.9876885</v>
       </c>
     </row>
     <row r="468">
@@ -5581,10 +5581,10 @@
         <v>1.58</v>
       </c>
       <c r="B468" t="n">
-        <v>2176.708635348815</v>
+        <v>887.0326469235264</v>
       </c>
       <c r="C468" t="n">
-        <v>2176708635.348815</v>
+        <v>887032646.9235264</v>
       </c>
     </row>
     <row r="469">
@@ -5592,10 +5592,10 @@
         <v>1.585</v>
       </c>
       <c r="B469" t="n">
-        <v>2177.987897725965</v>
+        <v>887.2973463666573</v>
       </c>
       <c r="C469" t="n">
-        <v>2177987897.725965</v>
+        <v>887297346.3666573</v>
       </c>
     </row>
     <row r="470">
@@ -5603,10 +5603,10 @@
         <v>1.59</v>
       </c>
       <c r="B470" t="n">
-        <v>2179.263880323801</v>
+        <v>887.561290875226</v>
       </c>
       <c r="C470" t="n">
-        <v>2179263880.323801</v>
+        <v>887561290.8752259</v>
       </c>
     </row>
     <row r="471">
@@ -5614,10 +5614,10 @@
         <v>1.595</v>
       </c>
       <c r="B471" t="n">
-        <v>2180.536601822408</v>
+        <v>887.8244849657958</v>
       </c>
       <c r="C471" t="n">
-        <v>2180536601.822408</v>
+        <v>887824484.9657959</v>
       </c>
     </row>
     <row r="472">
@@ -5625,10 +5625,10 @@
         <v>1.6</v>
       </c>
       <c r="B472" t="n">
-        <v>2181.806080737343</v>
+        <v>888.0869331138582</v>
       </c>
       <c r="C472" t="n">
-        <v>2181806080.737343</v>
+        <v>888086933.1138582</v>
       </c>
     </row>
     <row r="473">
@@ -5636,10 +5636,10 @@
         <v>1.605</v>
       </c>
       <c r="B473" t="n">
-        <v>2183.072335421595</v>
+        <v>888.3486397543312</v>
       </c>
       <c r="C473" t="n">
-        <v>2183072335.421595</v>
+        <v>888348639.7543312</v>
       </c>
     </row>
     <row r="474">
@@ -5647,10 +5647,10 @@
         <v>1.61</v>
       </c>
       <c r="B474" t="n">
-        <v>2184.335384067508</v>
+        <v>888.6096092820541</v>
       </c>
       <c r="C474" t="n">
-        <v>2184335384.067508</v>
+        <v>888609609.2820541</v>
       </c>
     </row>
     <row r="475">
@@ -5658,10 +5658,10 @@
         <v>1.615</v>
       </c>
       <c r="B475" t="n">
-        <v>2185.595244708687</v>
+        <v>888.8698460522718</v>
       </c>
       <c r="C475" t="n">
-        <v>2185595244.708687</v>
+        <v>888869846.0522717</v>
       </c>
     </row>
     <row r="476">
@@ -5669,10 +5669,10 @@
         <v>1.62</v>
       </c>
       <c r="B476" t="n">
-        <v>2186.851935221868</v>
+        <v>889.1293543811137</v>
       </c>
       <c r="C476" t="n">
-        <v>2186851935.221868</v>
+        <v>889129354.3811136</v>
       </c>
     </row>
     <row r="477">
@@ -5680,10 +5680,10 @@
         <v>1.625</v>
       </c>
       <c r="B477" t="n">
-        <v>2188.105473328758</v>
+        <v>889.388138546063</v>
       </c>
       <c r="C477" t="n">
-        <v>2188105473.328758</v>
+        <v>889388138.5460631</v>
       </c>
     </row>
     <row r="478">
@@ -5691,10 +5691,10 @@
         <v>1.63</v>
       </c>
       <c r="B478" t="n">
-        <v>2189.355876597858</v>
+        <v>889.6462027864225</v>
       </c>
       <c r="C478" t="n">
-        <v>2189355876.597858</v>
+        <v>889646202.7864225</v>
       </c>
     </row>
     <row r="479">
@@ -5702,10 +5702,10 @@
         <v>1.635</v>
       </c>
       <c r="B479" t="n">
-        <v>2190.603162446246</v>
+        <v>889.9035513037687</v>
       </c>
       <c r="C479" t="n">
-        <v>2190603162.446246</v>
+        <v>889903551.3037688</v>
       </c>
     </row>
     <row r="480">
@@ -5713,10 +5713,10 @@
         <v>1.64</v>
       </c>
       <c r="B480" t="n">
-        <v>2191.847348141346</v>
+        <v>890.1601882624043</v>
       </c>
       <c r="C480" t="n">
-        <v>2191847348.141346</v>
+        <v>890160188.2624043</v>
       </c>
     </row>
     <row r="481">
@@ -5724,10 +5724,10 @@
         <v>1.645</v>
       </c>
       <c r="B481" t="n">
-        <v>2193.088450802661</v>
+        <v>890.4161177897995</v>
       </c>
       <c r="C481" t="n">
-        <v>2193088450.80266</v>
+        <v>890416117.7897995</v>
       </c>
     </row>
     <row r="482">
@@ -5735,10 +5735,10 @@
         <v>1.65</v>
       </c>
       <c r="B482" t="n">
-        <v>2194.32648740349</v>
+        <v>890.6713439770292</v>
       </c>
       <c r="C482" t="n">
-        <v>2194326487.40349</v>
+        <v>890671343.9770292</v>
       </c>
     </row>
     <row r="483">
@@ -5746,10 +5746,10 @@
         <v>1.655</v>
       </c>
       <c r="B483" t="n">
-        <v>2195.561474772611</v>
+        <v>890.9258708792034</v>
       </c>
       <c r="C483" t="n">
-        <v>2195561474.772611</v>
+        <v>890925870.8792034</v>
       </c>
     </row>
     <row r="484">
@@ -5757,10 +5757,10 @@
         <v>1.66</v>
       </c>
       <c r="B484" t="n">
-        <v>2196.793429595946</v>
+        <v>891.1797025158902</v>
       </c>
       <c r="C484" t="n">
-        <v>2196793429.595946</v>
+        <v>891179702.5158902</v>
       </c>
     </row>
     <row r="485">
@@ -5768,10 +5768,10 @@
         <v>1.665</v>
       </c>
       <c r="B485" t="n">
-        <v>2198.022368418199</v>
+        <v>891.4328428715337</v>
       </c>
       <c r="C485" t="n">
-        <v>2198022368.418199</v>
+        <v>891432842.8715338</v>
       </c>
     </row>
     <row r="486">
@@ -5779,10 +5779,10 @@
         <v>1.67</v>
       </c>
       <c r="B486" t="n">
-        <v>2199.248307644471</v>
+        <v>891.6852958958655</v>
       </c>
       <c r="C486" t="n">
-        <v>2199248307.644471</v>
+        <v>891685295.8958654</v>
       </c>
     </row>
     <row r="487">
@@ -5790,10 +5790,10 @@
         <v>1.675</v>
       </c>
       <c r="B487" t="n">
-        <v>2200.471263541853</v>
+        <v>891.9370655043092</v>
       </c>
       <c r="C487" t="n">
-        <v>2200471263.541853</v>
+        <v>891937065.5043092</v>
       </c>
     </row>
     <row r="488">
@@ -5801,10 +5801,10 @@
         <v>1.68</v>
       </c>
       <c r="B488" t="n">
-        <v>2201.691252240993</v>
+        <v>892.1881555783812</v>
       </c>
       <c r="C488" t="n">
-        <v>2201691252.240993</v>
+        <v>892188155.5783812</v>
       </c>
     </row>
     <row r="489">
@@ -5812,10 +5812,10 @@
         <v>1.685</v>
       </c>
       <c r="B489" t="n">
-        <v>2202.908289737644</v>
+        <v>892.4385699660824</v>
       </c>
       <c r="C489" t="n">
-        <v>2202908289.737644</v>
+        <v>892438569.9660823</v>
       </c>
     </row>
     <row r="490">
@@ -5823,10 +5823,10 @@
         <v>1.69</v>
       </c>
       <c r="B490" t="n">
-        <v>2204.122391894187</v>
+        <v>892.6883124822874</v>
       </c>
       <c r="C490" t="n">
-        <v>2204122391.894187</v>
+        <v>892688312.4822874</v>
       </c>
     </row>
     <row r="491">
@@ -5834,10 +5834,10 @@
         <v>1.695</v>
       </c>
       <c r="B491" t="n">
-        <v>2205.333574441137</v>
+        <v>892.9373869091265</v>
       </c>
       <c r="C491" t="n">
-        <v>2205333574.441136</v>
+        <v>892937386.9091265</v>
       </c>
     </row>
     <row r="492">
@@ -5845,10 +5845,10 @@
         <v>1.7</v>
       </c>
       <c r="B492" t="n">
-        <v>2206.541852978618</v>
+        <v>893.1857969963618</v>
       </c>
       <c r="C492" t="n">
-        <v>2206541852.978618</v>
+        <v>893185796.9963617</v>
       </c>
     </row>
     <row r="493">
@@ -5856,10 +5856,10 @@
         <v>1.71</v>
       </c>
       <c r="B493" t="n">
-        <v>2208.94975978249</v>
+        <v>893.680638991452</v>
       </c>
       <c r="C493" t="n">
-        <v>2208949759.78249</v>
+        <v>893680638.9914521</v>
       </c>
     </row>
     <row r="494">
@@ -5867,10 +5867,10 @@
         <v>1.72</v>
       </c>
       <c r="B494" t="n">
-        <v>2211.346234554066</v>
+        <v>894.1728678322738</v>
       </c>
       <c r="C494" t="n">
-        <v>2211346234.554066</v>
+        <v>894172867.8322738</v>
       </c>
     </row>
     <row r="495">
@@ -5878,10 +5878,10 @@
         <v>1.73</v>
       </c>
       <c r="B495" t="n">
-        <v>2213.731397546777</v>
+        <v>894.66251238887</v>
       </c>
       <c r="C495" t="n">
-        <v>2213731397.546777</v>
+        <v>894662512.38887</v>
       </c>
     </row>
     <row r="496">
@@ -5889,10 +5889,10 @@
         <v>1.74</v>
       </c>
       <c r="B496" t="n">
-        <v>2216.105367063095</v>
+        <v>895.1496010477484</v>
       </c>
       <c r="C496" t="n">
-        <v>2216105367.063095</v>
+        <v>895149601.0477484</v>
       </c>
     </row>
     <row r="497">
@@ -5900,10 +5900,10 @@
         <v>1.75</v>
       </c>
       <c r="B497" t="n">
-        <v>2218.468259497178</v>
+        <v>895.6341617227042</v>
       </c>
       <c r="C497" t="n">
-        <v>2218468259.497178</v>
+        <v>895634161.7227042</v>
       </c>
     </row>
     <row r="498">
@@ -5911,10 +5911,10 @@
         <v>1.76</v>
       </c>
       <c r="B498" t="n">
-        <v>2220.820189376363</v>
+        <v>896.1162218653419</v>
       </c>
       <c r="C498" t="n">
-        <v>2220820189.376363</v>
+        <v>896116221.8653419</v>
       </c>
     </row>
     <row r="499">
@@ -5922,10 +5922,10 @@
         <v>1.77</v>
       </c>
       <c r="B499" t="n">
-        <v>2223.161269401512</v>
+        <v>896.5958084753031</v>
       </c>
       <c r="C499" t="n">
-        <v>2223161269.401512</v>
+        <v>896595808.4753031</v>
       </c>
     </row>
     <row r="500">
@@ -5933,10 +5933,10 @@
         <v>1.78</v>
       </c>
       <c r="B500" t="n">
-        <v>2225.49161048627</v>
+        <v>897.0729481102127</v>
       </c>
       <c r="C500" t="n">
-        <v>2225491610.48627</v>
+        <v>897072948.1102127</v>
       </c>
     </row>
     <row r="501">
@@ -5944,10 +5944,10 @@
         <v>1.79</v>
       </c>
       <c r="B501" t="n">
-        <v>2227.811321795265</v>
+        <v>897.5476668953512</v>
       </c>
       <c r="C501" t="n">
-        <v>2227811321.795266</v>
+        <v>897547666.8953512</v>
       </c>
     </row>
     <row r="502">
@@ -5955,10 +5955,10 @@
         <v>1.8</v>
       </c>
       <c r="B502" t="n">
-        <v>2230.120510781284</v>
+        <v>898.0199905330624</v>
       </c>
       <c r="C502" t="n">
-        <v>2230120510.781284</v>
+        <v>898019990.5330623</v>
       </c>
     </row>
     <row r="503">
@@ -5966,10 +5966,10 @@
         <v>1.81</v>
       </c>
       <c r="B503" t="n">
-        <v>2232.419283221448</v>
+        <v>898.4899443119062</v>
       </c>
       <c r="C503" t="n">
-        <v>2232419283.221447</v>
+        <v>898489944.3119062</v>
       </c>
     </row>
     <row r="504">
@@ -5977,10 +5977,10 @@
         <v>1.82</v>
       </c>
       <c r="B504" t="n">
-        <v>2234.70774325244</v>
+        <v>898.9575531155637</v>
       </c>
       <c r="C504" t="n">
-        <v>2234707743.25244</v>
+        <v>898957553.1155636</v>
       </c>
     </row>
     <row r="505">
@@ -5988,10 +5988,10 @@
         <v>1.83</v>
       </c>
       <c r="B505" t="n">
-        <v>2236.985993404794</v>
+        <v>899.4228414315014</v>
       </c>
       <c r="C505" t="n">
-        <v>2236985993.404795</v>
+        <v>899422841.4315014</v>
       </c>
     </row>
     <row r="506">
@@ -5999,10 +5999,10 @@
         <v>1.84</v>
       </c>
       <c r="B506" t="n">
-        <v>2239.254134636293</v>
+        <v>899.885833359407</v>
       </c>
       <c r="C506" t="n">
-        <v>2239254134.636293</v>
+        <v>899885833.3594069</v>
       </c>
     </row>
     <row r="507">
@@ -6010,10 +6010,10 @@
         <v>1.85</v>
       </c>
       <c r="B507" t="n">
-        <v>2241.512266364482</v>
+        <v>900.3465526193977</v>
       </c>
       <c r="C507" t="n">
-        <v>2241512266.364481</v>
+        <v>900346552.6193976</v>
       </c>
     </row>
     <row r="508">
@@ -6021,10 +6021,10 @@
         <v>1.86</v>
       </c>
       <c r="B508" t="n">
-        <v>2243.76048649835</v>
+        <v>900.8050225600124</v>
       </c>
       <c r="C508" t="n">
-        <v>2243760486.49835</v>
+        <v>900805022.5600123</v>
       </c>
     </row>
     <row r="509">
@@ -6032,10 +6032,10 @@
         <v>1.87</v>
       </c>
       <c r="B509" t="n">
-        <v>2245.998891469191</v>
+        <v>901.2612661659954</v>
       </c>
       <c r="C509" t="n">
-        <v>2245998891.469191</v>
+        <v>901261266.1659954</v>
       </c>
     </row>
     <row r="510">
@@ -6043,10 +6043,10 @@
         <v>1.88</v>
       </c>
       <c r="B510" t="n">
-        <v>2248.227576260665</v>
+        <v>901.7153060658731</v>
       </c>
       <c r="C510" t="n">
-        <v>2248227576.260664</v>
+        <v>901715306.065873</v>
       </c>
     </row>
     <row r="511">
@@ -6054,10 +6054,10 @@
         <v>1.89</v>
       </c>
       <c r="B511" t="n">
-        <v>2250.446634438101</v>
+        <v>902.1671645393367</v>
       </c>
       <c r="C511" t="n">
-        <v>2250446634.438101</v>
+        <v>902167164.5393367</v>
       </c>
     </row>
     <row r="512">
@@ -6065,10 +6065,10 @@
         <v>1.9</v>
       </c>
       <c r="B512" t="n">
-        <v>2252.656158177049</v>
+        <v>902.6168635244321</v>
       </c>
       <c r="C512" t="n">
-        <v>2252656158.177049</v>
+        <v>902616863.5244321</v>
       </c>
     </row>
     <row r="513">
@@ -6076,10 +6076,10 @@
         <v>1.91</v>
       </c>
       <c r="B513" t="n">
-        <v>2254.856238291113</v>
+        <v>903.0644246245645</v>
       </c>
       <c r="C513" t="n">
-        <v>2254856238.291113</v>
+        <v>903064424.6245645</v>
       </c>
     </row>
     <row r="514">
@@ -6087,10 +6087,10 @@
         <v>1.92</v>
       </c>
       <c r="B514" t="n">
-        <v>2257.046964259082</v>
+        <v>903.5098691153242</v>
       </c>
       <c r="C514" t="n">
-        <v>2257046964.259081</v>
+        <v>903509869.1153243</v>
       </c>
     </row>
     <row r="515">
@@ -6098,10 +6098,10 @@
         <v>1.93</v>
       </c>
       <c r="B515" t="n">
-        <v>2259.228424251384</v>
+        <v>903.9532179511389</v>
       </c>
       <c r="C515" t="n">
-        <v>2259228424.251384</v>
+        <v>903953217.9511389</v>
       </c>
     </row>
     <row r="516">
@@ -6109,10 +6109,10 @@
         <v>1.94</v>
       </c>
       <c r="B516" t="n">
-        <v>2261.400705155885</v>
+        <v>904.3944917717552</v>
       </c>
       <c r="C516" t="n">
-        <v>2261400705.155885</v>
+        <v>904394491.7717551</v>
       </c>
     </row>
     <row r="517">
@@ -6120,10 +6120,10 @@
         <v>1.95</v>
       </c>
       <c r="B517" t="n">
-        <v>2263.56389260304</v>
+        <v>904.8337109085597</v>
       </c>
       <c r="C517" t="n">
-        <v>2263563892.60304</v>
+        <v>904833710.9085597</v>
       </c>
     </row>
     <row r="518">
@@ -6131,10 +6131,10 @@
         <v>1.96</v>
       </c>
       <c r="B518" t="n">
-        <v>2265.718070990435</v>
+        <v>905.270895390739</v>
       </c>
       <c r="C518" t="n">
-        <v>2265718070.990435</v>
+        <v>905270895.3907391</v>
       </c>
     </row>
     <row r="519">
@@ -6142,10 +6142,10 @@
         <v>1.97</v>
       </c>
       <c r="B519" t="n">
-        <v>2267.863323506717</v>
+        <v>905.7060649512862</v>
       </c>
       <c r="C519" t="n">
-        <v>2267863323.506717</v>
+        <v>905706064.9512862</v>
       </c>
     </row>
     <row r="520">
@@ -6153,10 +6153,10 @@
         <v>1.98</v>
       </c>
       <c r="B520" t="n">
-        <v>2269.999732154956</v>
+        <v>906.1392390328599</v>
       </c>
       <c r="C520" t="n">
-        <v>2269999732.154956</v>
+        <v>906139239.0328599</v>
       </c>
     </row>
     <row r="521">
@@ -6164,10 +6164,10 @@
         <v>1.99</v>
       </c>
       <c r="B521" t="n">
-        <v>2272.127377775419</v>
+        <v>906.5704367934968</v>
       </c>
       <c r="C521" t="n">
-        <v>2272127377.775419</v>
+        <v>906570436.7934968</v>
       </c>
     </row>
     <row r="522">
@@ -6175,10 +6175,10 @@
         <v>2</v>
       </c>
       <c r="B522" t="n">
-        <v>2274.246340067815</v>
+        <v>906.9996771121837</v>
       </c>
       <c r="C522" t="n">
-        <v>2274246340.067815</v>
+        <v>906999677.1121837</v>
       </c>
     </row>
     <row r="523">
@@ -6186,10 +6186,10 @@
         <v>2.02</v>
       </c>
       <c r="B523" t="n">
-        <v>2278.458527894121</v>
+        <v>907.8523595768933</v>
       </c>
       <c r="C523" t="n">
-        <v>2278458527.894121</v>
+        <v>907852359.5768932</v>
       </c>
     </row>
     <row r="524">
@@ -6197,10 +6197,10 @@
         <v>2.04</v>
       </c>
       <c r="B524" t="n">
-        <v>2282.636911232132</v>
+        <v>908.6974320811922</v>
       </c>
       <c r="C524" t="n">
-        <v>2282636911.232132</v>
+        <v>908697432.0811923</v>
       </c>
     </row>
     <row r="525">
@@ -6208,10 +6208,10 @@
         <v>2.06</v>
       </c>
       <c r="B525" t="n">
-        <v>2286.782088767389</v>
+        <v>909.5350361489782</v>
       </c>
       <c r="C525" t="n">
-        <v>2286782088.767389</v>
+        <v>909535036.1489782</v>
       </c>
     </row>
     <row r="526">
@@ -6219,10 +6219,10 @@
         <v>2.08</v>
       </c>
       <c r="B526" t="n">
-        <v>2290.894642896417</v>
+        <v>910.3653093297544</v>
       </c>
       <c r="C526" t="n">
-        <v>2290894642.896417</v>
+        <v>910365309.3297544</v>
       </c>
     </row>
     <row r="527">
@@ -6230,10 +6230,10 @@
         <v>2.1</v>
       </c>
       <c r="B527" t="n">
-        <v>2294.975140321656</v>
+        <v>911.1883853472217</v>
       </c>
       <c r="C527" t="n">
-        <v>2294975140.321656</v>
+        <v>911188385.3472217</v>
       </c>
     </row>
     <row r="528">
@@ -6241,10 +6241,10 @@
         <v>2.12</v>
       </c>
       <c r="B528" t="n">
-        <v>2299.02413261924</v>
+        <v>912.004394240957</v>
       </c>
       <c r="C528" t="n">
-        <v>2299024132.61924</v>
+        <v>912004394.240957</v>
       </c>
     </row>
     <row r="529">
@@ -6252,10 +6252,10 @@
         <v>2.14</v>
       </c>
       <c r="B529" t="n">
-        <v>2303.042156781084</v>
+        <v>912.8134625015643</v>
       </c>
       <c r="C529" t="n">
-        <v>2303042156.781085</v>
+        <v>912813462.5015644</v>
       </c>
     </row>
     <row r="530">
@@ -6263,10 +6263,10 @@
         <v>2.16</v>
       </c>
       <c r="B530" t="n">
-        <v>2307.029735732684</v>
+        <v>913.6157131996561</v>
       </c>
       <c r="C530" t="n">
-        <v>2307029735.732684</v>
+        <v>913615713.199656</v>
       </c>
     </row>
     <row r="531">
@@ -6274,10 +6274,10 @@
         <v>2.18</v>
       </c>
       <c r="B531" t="n">
-        <v>2310.987378827919</v>
+        <v>914.4112661090004</v>
       </c>
       <c r="C531" t="n">
-        <v>2310987378.827919</v>
+        <v>914411266.1090004</v>
       </c>
     </row>
     <row r="532">
@@ -6285,10 +6285,10 @@
         <v>2.2</v>
       </c>
       <c r="B532" t="n">
-        <v>2314.915582322094</v>
+        <v>915.2002378241511</v>
       </c>
       <c r="C532" t="n">
-        <v>2314915582.322093</v>
+        <v>915200237.8241512</v>
       </c>
     </row>
     <row r="533">
@@ -6296,10 +6296,10 @@
         <v>2.22</v>
       </c>
       <c r="B533" t="n">
-        <v>2318.814829824355</v>
+        <v>915.9827418728514</v>
       </c>
       <c r="C533" t="n">
-        <v>2318814829.824355</v>
+        <v>915982741.8728514</v>
       </c>
     </row>
     <row r="534">
@@ -6307,10 +6307,10 @@
         <v>2.24</v>
       </c>
       <c r="B534" t="n">
-        <v>2322.685592730558</v>
+        <v>916.758888823493</v>
       </c>
       <c r="C534" t="n">
-        <v>2322685592.730558</v>
+        <v>916758888.823493</v>
       </c>
     </row>
     <row r="535">
@@ -6318,10 +6318,10 @@
         <v>2.26</v>
       </c>
       <c r="B535" t="n">
-        <v>2326.528330637604</v>
+        <v>917.5287863878859</v>
       </c>
       <c r="C535" t="n">
-        <v>2326528330.637604</v>
+        <v>917528786.3878859</v>
       </c>
     </row>
     <row r="536">
@@ -6329,10 +6329,10 @@
         <v>2.28</v>
       </c>
       <c r="B536" t="n">
-        <v>2330.343491740186</v>
+        <v>918.2925395195863</v>
       </c>
       <c r="C536" t="n">
-        <v>2330343491.740186</v>
+        <v>918292539.5195863</v>
       </c>
     </row>
     <row r="537">
@@ -6340,10 +6340,10 @@
         <v>2.3</v>
       </c>
       <c r="B537" t="n">
-        <v>2334.131513210851</v>
+        <v>919.0502505080098</v>
       </c>
       <c r="C537" t="n">
-        <v>2334131513.210851</v>
+        <v>919050250.5080098</v>
       </c>
     </row>
     <row r="538">
@@ -6351,10 +6351,10 @@
         <v>2.32</v>
       </c>
       <c r="B538" t="n">
-        <v>2337.892821564197</v>
+        <v>919.8020190685459</v>
       </c>
       <c r="C538" t="n">
-        <v>2337892821.564197</v>
+        <v>919802019.0685458</v>
       </c>
     </row>
     <row r="539">
@@ -6362,10 +6362,10 @@
         <v>2.34</v>
       </c>
       <c r="B539" t="n">
-        <v>2341.62783300603</v>
+        <v>920.5479424288781</v>
       </c>
       <c r="C539" t="n">
-        <v>2341627833.00603</v>
+        <v>920547942.4288781</v>
       </c>
     </row>
     <row r="540">
@@ -6373,10 +6373,10 @@
         <v>2.36</v>
       </c>
       <c r="B540" t="n">
-        <v>2345.336953768187</v>
+        <v>921.2881154116966</v>
       </c>
       <c r="C540" t="n">
-        <v>2345336953.768187</v>
+        <v>921288115.4116966</v>
       </c>
     </row>
     <row r="541">
@@ -6384,10 +6384,10 @@
         <v>2.38</v>
       </c>
       <c r="B541" t="n">
-        <v>2349.020580429764</v>
+        <v>922.0226305139886</v>
       </c>
       <c r="C541" t="n">
-        <v>2349020580.429764</v>
+        <v>922022630.5139886</v>
       </c>
     </row>
     <row r="542">
@@ -6395,10 +6395,10 @@
         <v>2.4</v>
       </c>
       <c r="B542" t="n">
-        <v>2352.679100225387</v>
+        <v>922.7515779830702</v>
       </c>
       <c r="C542" t="n">
-        <v>2352679100.225387</v>
+        <v>922751577.9830703</v>
       </c>
     </row>
     <row r="543">
@@ -6406,10 +6406,10 @@
         <v>2.42</v>
       </c>
       <c r="B543" t="n">
-        <v>2356.312891341162</v>
+        <v>923.4750458895242</v>
       </c>
       <c r="C543" t="n">
-        <v>2356312891.341162</v>
+        <v>923475045.8895241</v>
       </c>
     </row>
     <row r="544">
@@ -6417,10 +6417,10 @@
         <v>2.44</v>
       </c>
       <c r="B544" t="n">
-        <v>2359.922323198889</v>
+        <v>924.19312019719</v>
       </c>
       <c r="C544" t="n">
-        <v>2359922323.198888</v>
+        <v>924193120.1971899</v>
       </c>
     </row>
     <row r="545">
@@ -6428,10 +6428,10 @@
         <v>2.46</v>
       </c>
       <c r="B545" t="n">
-        <v>2363.507756729106</v>
+        <v>924.9058848303522</v>
       </c>
       <c r="C545" t="n">
-        <v>2363507756.729106</v>
+        <v>924905884.8303522</v>
       </c>
     </row>
     <row r="546">
@@ -6439,10 +6439,10 @@
         <v>2.48</v>
       </c>
       <c r="B546" t="n">
-        <v>2367.069544633478</v>
+        <v>925.613421738258</v>
       </c>
       <c r="C546" t="n">
-        <v>2367069544.633479</v>
+        <v>925613421.738258</v>
       </c>
     </row>
     <row r="547">
@@ -6450,10 +6450,10 @@
         <v>2.5</v>
       </c>
       <c r="B547" t="n">
-        <v>2370.608031637039</v>
+        <v>926.3158109570916</v>
       </c>
       <c r="C547" t="n">
-        <v>2370608031.637039</v>
+        <v>926315810.9570916</v>
       </c>
     </row>
     <row r="548">
@@ -6461,10 +6461,10 @@
         <v>2.52</v>
       </c>
       <c r="B548" t="n">
-        <v>2374.123554730742</v>
+        <v>927.0131306695263</v>
       </c>
       <c r="C548" t="n">
-        <v>2374123554.730742</v>
+        <v>927013130.6695262</v>
       </c>
     </row>
     <row r="549">
@@ -6472,10 +6472,10 @@
         <v>2.54</v>
       </c>
       <c r="B549" t="n">
-        <v>2377.61644340479</v>
+        <v>927.7054572619664</v>
       </c>
       <c r="C549" t="n">
-        <v>2377616443.404789</v>
+        <v>927705457.2619665</v>
       </c>
     </row>
     <row r="550">
@@ -6483,10 +6483,10 @@
         <v>2.56</v>
       </c>
       <c r="B550" t="n">
-        <v>2381.087019873135</v>
+        <v>928.3928653795861</v>
       </c>
       <c r="C550" t="n">
-        <v>2381087019.873135</v>
+        <v>928392865.3795861</v>
       </c>
     </row>
     <row r="551">
@@ -6494,10 +6494,10 @@
         <v>2.58</v>
       </c>
       <c r="B551" t="n">
-        <v>2384.535599289574</v>
+        <v>929.0754279792651</v>
       </c>
       <c r="C551" t="n">
-        <v>2384535599.289574</v>
+        <v>929075427.9792651</v>
       </c>
     </row>
     <row r="552">
@@ -6505,10 +6505,10 @@
         <v>2.6</v>
       </c>
       <c r="B552" t="n">
-        <v>2387.962489955802</v>
+        <v>929.7532163805214</v>
       </c>
       <c r="C552" t="n">
-        <v>2387962489.955802</v>
+        <v>929753216.3805214</v>
       </c>
     </row>
     <row r="553">
@@ -6516,10 +6516,10 @@
         <v>2.62</v>
       </c>
       <c r="B553" t="n">
-        <v>2391.367993521783</v>
+        <v>930.4263003145263</v>
       </c>
       <c r="C553" t="n">
-        <v>2391367993.521783</v>
+        <v>930426300.3145263</v>
       </c>
     </row>
     <row r="554">
@@ -6527,10 +6527,10 @@
         <v>2.64</v>
       </c>
       <c r="B554" t="n">
-        <v>2394.752405178789</v>
+        <v>931.0947479712914</v>
       </c>
       <c r="C554" t="n">
-        <v>2394752405.178789</v>
+        <v>931094747.9712914</v>
       </c>
     </row>
     <row r="555">
@@ -6538,10 +6538,10 @@
         <v>2.66</v>
       </c>
       <c r="B555" t="n">
-        <v>2398.116013845413</v>
+        <v>931.7586260451086</v>
       </c>
       <c r="C555" t="n">
-        <v>2398116013.845413</v>
+        <v>931758626.0451086</v>
       </c>
     </row>
     <row r="556">
@@ -6549,10 +6549,10 @@
         <v>2.68</v>
       </c>
       <c r="B556" t="n">
-        <v>2401.459102346879</v>
+        <v>932.4179997783185</v>
       </c>
       <c r="C556" t="n">
-        <v>2401459102.346879</v>
+        <v>932417999.7783185</v>
       </c>
     </row>
     <row r="557">
@@ -6560,10 +6560,10 @@
         <v>2.7</v>
       </c>
       <c r="B557" t="n">
-        <v>2404.781947587924</v>
+        <v>933.072933003484</v>
       </c>
       <c r="C557" t="n">
-        <v>2404781947.587924</v>
+        <v>933072933.003484</v>
       </c>
     </row>
     <row r="558">
@@ -6571,10 +6571,10 @@
         <v>2.72</v>
       </c>
       <c r="B558" t="n">
-        <v>2408.084820719537</v>
+        <v>933.7234881840349</v>
       </c>
       <c r="C558" t="n">
-        <v>2408084820.719537</v>
+        <v>933723488.1840348</v>
       </c>
     </row>
     <row r="559">
@@ -6582,10 +6582,10 @@
         <v>2.74</v>
       </c>
       <c r="B559" t="n">
-        <v>2411.367987299815</v>
+        <v>934.3697264534519</v>
       </c>
       <c r="C559" t="n">
-        <v>2411367987.299816</v>
+        <v>934369726.4534519</v>
       </c>
     </row>
     <row r="560">
@@ -6593,10 +6593,10 @@
         <v>2.76</v>
       </c>
       <c r="B560" t="n">
-        <v>2414.631707449184</v>
+        <v>935.0117076530532</v>
       </c>
       <c r="C560" t="n">
-        <v>2414631707.449184</v>
+        <v>935011707.6530533</v>
       </c>
     </row>
     <row r="561">
@@ -6604,10 +6604,10 @@
         <v>2.78</v>
       </c>
       <c r="B561" t="n">
-        <v>2417.876236000221</v>
+        <v>935.6494903684412</v>
       </c>
       <c r="C561" t="n">
-        <v>2417876236.000221</v>
+        <v>935649490.3684412</v>
       </c>
     </row>
     <row r="562">
@@ -6615,10 +6615,10 @@
         <v>2.8</v>
       </c>
       <c r="B562" t="n">
-        <v>2421.101822642301</v>
+        <v>936.2831319646669</v>
       </c>
       <c r="C562" t="n">
-        <v>2421101822.642301</v>
+        <v>936283131.964667</v>
       </c>
     </row>
     <row r="563">
@@ -6626,10 +6626,10 @@
         <v>2.82</v>
       </c>
       <c r="B563" t="n">
-        <v>2424.30871206129</v>
+        <v>936.9126886201688</v>
       </c>
       <c r="C563" t="n">
-        <v>2424308712.06129</v>
+        <v>936912688.6201688</v>
       </c>
     </row>
     <row r="564">
@@ -6637,10 +6637,10 @@
         <v>2.84</v>
       </c>
       <c r="B564" t="n">
-        <v>2427.497144074483</v>
+        <v>937.5382153595307</v>
       </c>
       <c r="C564" t="n">
-        <v>2427497144.074483</v>
+        <v>937538215.3595307</v>
       </c>
     </row>
     <row r="565">
@@ -6648,10 +6648,10 @@
         <v>2.86</v>
       </c>
       <c r="B565" t="n">
-        <v>2430.667353760974</v>
+        <v>938.1597660851158</v>
       </c>
       <c r="C565" t="n">
-        <v>2430667353.760973</v>
+        <v>938159766.0851158</v>
       </c>
     </row>
     <row r="566">
@@ -6659,10 +6659,10 @@
         <v>2.88</v>
       </c>
       <c r="B566" t="n">
-        <v>2433.819571587656</v>
+        <v>938.7773936076164</v>
       </c>
       <c r="C566" t="n">
-        <v>2433819571.587656</v>
+        <v>938777393.6076164</v>
       </c>
     </row>
     <row r="567">
@@ -6670,10 +6670,10 @@
         <v>2.9</v>
       </c>
       <c r="B567" t="n">
-        <v>2436.954023531021</v>
+        <v>939.3911496755667</v>
       </c>
       <c r="C567" t="n">
-        <v>2436954023.531022</v>
+        <v>939391149.6755667</v>
       </c>
     </row>
     <row r="568">
@@ -6681,10 +6681,10 @@
         <v>2.92</v>
       </c>
       <c r="B568" t="n">
-        <v>2440.070931194931</v>
+        <v>940.0010850038612</v>
       </c>
       <c r="C568" t="n">
-        <v>2440070931.194931</v>
+        <v>940001085.0038613</v>
       </c>
     </row>
     <row r="569">
@@ -6692,10 +6692,10 @@
         <v>2.94</v>
       </c>
       <c r="B569" t="n">
-        <v>2443.170511924503</v>
+        <v>940.6072493013169</v>
       </c>
       <c r="C569" t="n">
-        <v>2443170511.924503</v>
+        <v>940607249.3013169</v>
       </c>
     </row>
     <row r="570">
@@ -6703,10 +6703,10 @@
         <v>2.96</v>
       </c>
       <c r="B570" t="n">
-        <v>2446.252978916295</v>
+        <v>941.2096912973193</v>
       </c>
       <c r="C570" t="n">
-        <v>2446252978.916295</v>
+        <v>941209691.2973193</v>
       </c>
     </row>
     <row r="571">
@@ -6714,10 +6714,10 @@
         <v>2.98</v>
       </c>
       <c r="B571" t="n">
-        <v>2449.318541324905</v>
+        <v>941.8084587675875</v>
       </c>
       <c r="C571" t="n">
-        <v>2449318541.324905</v>
+        <v>941808458.7675874</v>
       </c>
     </row>
     <row r="572">
@@ -6725,10 +6725,10 @@
         <v>3</v>
       </c>
       <c r="B572" t="n">
-        <v>2452.367404366137</v>
+        <v>942.4035985590939</v>
       </c>
       <c r="C572" t="n">
-        <v>2452367404.366137</v>
+        <v>942403598.559094</v>
       </c>
     </row>
   </sheetData>
